--- a/SharkTraits-Template.xlsx
+++ b/SharkTraits-Template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alharry/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79834B00-73E7-EE45-BCE1-463E9C790B04}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="16000" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25360" windowHeight="14560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -28,7 +34,7 @@
     <definedName name="trait_name">INDEX(Traits[],0,MATCH('Data Entry'!XFD1,Traits[#Headers],0))</definedName>
     <definedName name="value_type">Value[]</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="1571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1576">
   <si>
     <t>observation_id</t>
   </si>
@@ -4774,11 +4780,26 @@
   <si>
     <t>CHIL</t>
   </si>
+  <si>
+    <t>raw_value</t>
+  </si>
+  <si>
+    <t>95_ci</t>
+  </si>
+  <si>
+    <t>model_derived</t>
+  </si>
+  <si>
+    <t>expert_opinion</t>
+  </si>
+  <si>
+    <t>group_opinion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4823,12 +4844,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4920,7 +4943,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4935,6 +4958,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5009,6 +5033,39 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -5075,39 +5132,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5315,118 +5339,126 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Traits" displayName="Traits" ref="C4:H20" totalsRowShown="0" headerRowDxfId="18">
-  <autoFilter ref="C4:H20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Traits" displayName="Traits" ref="C4:H20" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="C4:H20" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Length"/>
-    <tableColumn id="2" name="Age"/>
-    <tableColumn id="3" name="Growth"/>
-    <tableColumn id="4" name="Reproduction"/>
-    <tableColumn id="5" name="Demography"/>
-    <tableColumn id="6" name="Relationships"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Length"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Age"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Growth"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Reproduction"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Demography"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Relationships"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Standards" displayName="Standards" ref="C24:H33" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="C24:H33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Standards" displayName="Standards" ref="C24:H33" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="C24:H33" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Length"/>
-    <tableColumn id="2" name="Age"/>
-    <tableColumn id="3" name="Growth"/>
-    <tableColumn id="4" name="Reproduction"/>
-    <tableColumn id="5" name="Demography"/>
-    <tableColumn id="6" name="Relationships"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Length"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Age"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Growth"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Reproduction"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Demography"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Relationships"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Methods" displayName="Methods" ref="C36:H49" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="C36:H49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Methods" displayName="Methods" ref="C36:H49" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="C36:H49" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Length"/>
-    <tableColumn id="2" name="Age"/>
-    <tableColumn id="3" name="Growth"/>
-    <tableColumn id="4" name="Reproduction"/>
-    <tableColumn id="5" name="Demography"/>
-    <tableColumn id="6" name="Relationships"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Length"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Age"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Growth"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Reproduction"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Demography"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Relationships"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Models" displayName="Models" ref="C53:H65" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="C53:H65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Models" displayName="Models" ref="C53:H65" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="C53:H65" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Length"/>
-    <tableColumn id="2" name="Age"/>
-    <tableColumn id="3" name="Growth"/>
-    <tableColumn id="4" name="Reproduction"/>
-    <tableColumn id="5" name="Demography"/>
-    <tableColumn id="6" name="Relationships"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Length"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Age"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Growth"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Reproduction"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Demography"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Relationships"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Species" displayName="Species" ref="C69:F765" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="C69:F765"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Species" displayName="Species" ref="C69:F765" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="C69:F765" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Chimaeriformes" dataDxfId="12"/>
-    <tableColumn id="2" name="Batoidea" dataDxfId="11"/>
-    <tableColumn id="3" name="Squalimorph Sharks" dataDxfId="10"/>
-    <tableColumn id="4" name="Gaelomorph Sharks" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Chimaeriformes" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Batoidea" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Squalimorph Sharks" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Gaelomorph Sharks" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Sex" displayName="Sex" ref="J4:J8" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="J4:J8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Sex" displayName="Sex" ref="J4:J8" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="J4:J8" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Sex Type"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Sex Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Value" displayName="Value" ref="J11:J15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="J11:J15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Value" displayName="Value" ref="J11:J19" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="J11:J19" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Value Type" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Value Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Precision" displayName="Precision" ref="J18:J21" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="J18:J21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Precision" displayName="Precision" ref="L4:L8" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="L4:L8" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Precision Type"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Precision Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Longhust" displayName="Longhust" ref="J25:K81" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="J25:K81"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Longhust" displayName="Longhust" ref="J25:K81" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="J25:K81" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Province" dataDxfId="1"/>
-    <tableColumn id="2" name="Code" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Province" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Code" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5753,14 +5785,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC1"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" customWidth="1"/>
@@ -5777,7 +5809,7 @@
     <col min="24" max="24" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5868,34 +5900,34 @@
     </row>
   </sheetData>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>precision_name</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Class</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>clean.trait.name</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>cleaned.standard.name</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>cleaned.method.name</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>cleaned.model.name</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>Group</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>cleaned.species.names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>sex_name</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>value_type</formula1>
     </dataValidation>
   </dataValidations>
@@ -5904,7 +5936,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
             <xm:f>Values!$J$26:$J$81</xm:f>
           </x14:formula1>
@@ -5920,14 +5952,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K765"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L765"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I28" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="30.1640625" customWidth="1"/>
@@ -5936,19 +5968,20 @@
     <col min="7" max="7" width="20.33203125" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" customWidth="1"/>
     <col min="10" max="10" width="33.5" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
@@ -5970,8 +6003,11 @@
       <c r="J4" s="3" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="L4" s="5" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>1568</v>
       </c>
@@ -5993,8 +6029,11 @@
       <c r="J5" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="L5" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
@@ -6016,8 +6055,11 @@
       <c r="J6" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="L6" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
@@ -6039,8 +6081,11 @@
       <c r="J7" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="L7" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
@@ -6062,8 +6107,11 @@
       <c r="J8" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="L8" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
@@ -6080,7 +6128,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
@@ -6094,7 +6142,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
@@ -6111,7 +6159,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
@@ -6125,7 +6173,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>83</v>
       </c>
@@ -6139,7 +6187,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="2"/>
       <c r="E14" s="1" t="s">
         <v>70</v>
@@ -6151,7 +6199,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E15" s="1" t="s">
         <v>71</v>
       </c>
@@ -6162,36 +6210,42 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E16" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="3:11">
+      <c r="J16" s="2" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F17" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="3:11">
+      <c r="J17" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11">
+      <c r="J18" s="2" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11">
+      <c r="J19" s="12" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -6200,16 +6254,8 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="J20" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11">
-      <c r="J21" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11">
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C23" s="5" t="s">
         <v>1432</v>
       </c>
@@ -6219,7 +6265,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="3:11">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C24" s="3" t="s">
         <v>27</v>
       </c>
@@ -6243,7 +6289,7 @@
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>1424</v>
       </c>
@@ -6263,7 +6309,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="26" spans="3:11">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>1425</v>
       </c>
@@ -6280,7 +6326,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="27" spans="3:11">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>1426</v>
       </c>
@@ -6297,7 +6343,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="28" spans="3:11">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>1427</v>
       </c>
@@ -6311,7 +6357,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="29" spans="3:11">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>1428</v>
       </c>
@@ -6325,7 +6371,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="30" spans="3:11">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>1429</v>
       </c>
@@ -6339,7 +6385,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="31" spans="3:11">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>86</v>
       </c>
@@ -6353,7 +6399,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="32" spans="3:11">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>87</v>
       </c>
@@ -6367,7 +6413,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="33" spans="3:11">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F33" s="2" t="s">
         <v>91</v>
       </c>
@@ -6378,7 +6424,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="34" spans="3:11">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
       <c r="J34" s="11" t="s">
         <v>1471</v>
       </c>
@@ -6386,7 +6432,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="35" spans="3:11">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C35" s="5" t="s">
         <v>1433</v>
       </c>
@@ -6402,7 +6448,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="36" spans="3:11">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C36" s="3" t="s">
         <v>27</v>
       </c>
@@ -6428,7 +6474,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="37" spans="3:11">
+    <row r="37" spans="3:11" ht="17" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
         <v>92</v>
       </c>
@@ -6451,7 +6497,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="38" spans="3:11">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>93</v>
       </c>
@@ -6474,7 +6520,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="39" spans="3:11">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>94</v>
       </c>
@@ -6494,7 +6540,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="40" spans="3:11">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>1436</v>
       </c>
@@ -6514,7 +6560,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="41" spans="3:11">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>95</v>
       </c>
@@ -6534,7 +6580,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="42" spans="3:11">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>96</v>
       </c>
@@ -6551,7 +6597,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="43" spans="3:11">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>97</v>
       </c>
@@ -6568,7 +6614,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="44" spans="3:11">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>98</v>
       </c>
@@ -6582,7 +6628,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="45" spans="3:11">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>105</v>
       </c>
@@ -6596,7 +6642,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="46" spans="3:11">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>121</v>
       </c>
@@ -6610,7 +6656,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="47" spans="3:11">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>99</v>
       </c>
@@ -6624,7 +6670,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="48" spans="3:11">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>100</v>
       </c>
@@ -6638,7 +6684,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="49" spans="3:11">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D49" s="1" t="s">
         <v>1567</v>
       </c>
@@ -6649,7 +6695,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="50" spans="3:11">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
       <c r="J50" s="11" t="s">
         <v>1501</v>
       </c>
@@ -6657,7 +6703,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="51" spans="3:11">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
       <c r="J51" s="11" t="s">
         <v>1503</v>
       </c>
@@ -6665,7 +6711,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="52" spans="3:11">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C52" s="5" t="s">
         <v>1435</v>
       </c>
@@ -6681,7 +6727,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="53" spans="3:11">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C53" s="3" t="s">
         <v>27</v>
       </c>
@@ -6707,7 +6753,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="54" spans="3:11">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>92</v>
       </c>
@@ -6724,7 +6770,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="55" spans="3:11">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>106</v>
       </c>
@@ -6741,7 +6787,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="56" spans="3:11">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>107</v>
       </c>
@@ -6758,7 +6804,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="57" spans="3:11">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>108</v>
       </c>
@@ -6775,7 +6821,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="58" spans="3:11">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E58" s="1" t="s">
         <v>113</v>
       </c>
@@ -6786,7 +6832,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="59" spans="3:11">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E59" s="1" t="s">
         <v>114</v>
       </c>
@@ -6797,7 +6843,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="60" spans="3:11">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E60" s="1" t="s">
         <v>115</v>
       </c>
@@ -6808,7 +6854,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="61" spans="3:11">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E61" s="1" t="s">
         <v>116</v>
       </c>
@@ -6819,7 +6865,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="62" spans="3:11">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E62" s="1" t="s">
         <v>117</v>
       </c>
@@ -6830,7 +6876,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="63" spans="3:11">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E63" s="1" t="s">
         <v>118</v>
       </c>
@@ -6841,7 +6887,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="64" spans="3:11">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E64" s="1" t="s">
         <v>119</v>
       </c>
@@ -6852,7 +6898,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="65" spans="3:11">
+    <row r="65" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E65" s="1" t="s">
         <v>120</v>
       </c>
@@ -6863,7 +6909,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="66" spans="3:11">
+    <row r="66" spans="3:11" x14ac:dyDescent="0.2">
       <c r="J66" s="11" t="s">
         <v>1533</v>
       </c>
@@ -6871,7 +6917,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="67" spans="3:11">
+    <row r="67" spans="3:11" x14ac:dyDescent="0.2">
       <c r="J67" s="11" t="s">
         <v>1535</v>
       </c>
@@ -6879,7 +6925,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="68" spans="3:11">
+    <row r="68" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C68" s="3" t="s">
         <v>1443</v>
       </c>
@@ -6893,7 +6939,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="69" spans="3:11">
+    <row r="69" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C69" s="3" t="s">
         <v>1444</v>
       </c>
@@ -6913,7 +6959,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="70" spans="3:11">
+    <row r="70" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C70" s="10" t="s">
         <v>327</v>
       </c>
@@ -6933,7 +6979,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="71" spans="3:11">
+    <row r="71" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C71" s="10" t="s">
         <v>328</v>
       </c>
@@ -6953,7 +6999,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="72" spans="3:11">
+    <row r="72" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C72" s="10" t="s">
         <v>329</v>
       </c>
@@ -6973,7 +7019,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="73" spans="3:11">
+    <row r="73" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C73" s="10" t="s">
         <v>420</v>
       </c>
@@ -6993,7 +7039,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="74" spans="3:11">
+    <row r="74" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C74" s="10" t="s">
         <v>421</v>
       </c>
@@ -7013,7 +7059,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="75" spans="3:11">
+    <row r="75" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C75" s="10" t="s">
         <v>422</v>
       </c>
@@ -7033,7 +7079,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="76" spans="3:11">
+    <row r="76" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C76" s="10" t="s">
         <v>423</v>
       </c>
@@ -7053,7 +7099,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="77" spans="3:11">
+    <row r="77" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C77" s="10" t="s">
         <v>424</v>
       </c>
@@ -7073,7 +7119,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="78" spans="3:11">
+    <row r="78" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C78" s="10" t="s">
         <v>425</v>
       </c>
@@ -7093,7 +7139,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="79" spans="3:11">
+    <row r="79" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C79" s="10" t="s">
         <v>426</v>
       </c>
@@ -7113,7 +7159,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="80" spans="3:11">
+    <row r="80" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C80" s="10" t="s">
         <v>427</v>
       </c>
@@ -7133,7 +7179,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="81" spans="3:11">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C81" s="10" t="s">
         <v>428</v>
       </c>
@@ -7153,7 +7199,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="82" spans="3:11">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C82" s="10" t="s">
         <v>429</v>
       </c>
@@ -7167,7 +7213,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="3:11">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C83" s="10" t="s">
         <v>430</v>
       </c>
@@ -7181,7 +7227,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="3:11">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C84" s="10" t="s">
         <v>431</v>
       </c>
@@ -7195,7 +7241,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="85" spans="3:11">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C85" s="10" t="s">
         <v>432</v>
       </c>
@@ -7209,7 +7255,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="3:11">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C86" s="10" t="s">
         <v>433</v>
       </c>
@@ -7223,7 +7269,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="3:11">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C87" s="10" t="s">
         <v>434</v>
       </c>
@@ -7237,7 +7283,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="88" spans="3:11">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C88" s="10" t="s">
         <v>435</v>
       </c>
@@ -7251,7 +7297,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="89" spans="3:11">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C89" s="10" t="s">
         <v>683</v>
       </c>
@@ -7265,7 +7311,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="3:11">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C90" s="10" t="s">
         <v>684</v>
       </c>
@@ -7279,7 +7325,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="3:11">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C91" s="10" t="s">
         <v>756</v>
       </c>
@@ -7293,7 +7339,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="92" spans="3:11">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C92" s="10" t="s">
         <v>757</v>
       </c>
@@ -7307,7 +7353,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="3:11">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C93" s="10" t="s">
         <v>758</v>
       </c>
@@ -7321,7 +7367,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="94" spans="3:11">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C94" s="10" t="s">
         <v>759</v>
       </c>
@@ -7335,7 +7381,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="95" spans="3:11">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C95" s="10" t="s">
         <v>760</v>
       </c>
@@ -7349,7 +7395,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="96" spans="3:11">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C96" s="10" t="s">
         <v>761</v>
       </c>
@@ -7363,7 +7409,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="97" spans="3:6">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C97" s="10" t="s">
         <v>762</v>
       </c>
@@ -7377,7 +7423,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="3:6">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C98" s="10" t="s">
         <v>763</v>
       </c>
@@ -7391,7 +7437,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="99" spans="3:6">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C99" s="10" t="s">
         <v>764</v>
       </c>
@@ -7405,7 +7451,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="100" spans="3:6">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C100" s="10" t="s">
         <v>765</v>
       </c>
@@ -7419,7 +7465,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="101" spans="3:6">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C101" s="10" t="s">
         <v>766</v>
       </c>
@@ -7433,7 +7479,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="3:6">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C102" s="10" t="s">
         <v>767</v>
       </c>
@@ -7447,7 +7493,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="3:6">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C103" s="10" t="s">
         <v>768</v>
       </c>
@@ -7461,7 +7507,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="104" spans="3:6">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C104" s="10" t="s">
         <v>769</v>
       </c>
@@ -7475,7 +7521,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="3:6">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C105" s="10" t="s">
         <v>770</v>
       </c>
@@ -7489,7 +7535,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="106" spans="3:6">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C106" s="10" t="s">
         <v>771</v>
       </c>
@@ -7503,7 +7549,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="107" spans="3:6">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C107" s="10" t="s">
         <v>772</v>
       </c>
@@ -7517,7 +7563,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="108" spans="3:6">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C108" s="10" t="s">
         <v>773</v>
       </c>
@@ -7531,7 +7577,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="109" spans="3:6">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C109" s="10" t="s">
         <v>774</v>
       </c>
@@ -7545,7 +7591,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="3:6">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C110" s="10" t="s">
         <v>775</v>
       </c>
@@ -7559,7 +7605,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="3:6">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C111" s="10" t="s">
         <v>776</v>
       </c>
@@ -7573,7 +7619,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="112" spans="3:6">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C112" s="10" t="s">
         <v>777</v>
       </c>
@@ -7587,7 +7633,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="113" spans="3:6">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C113" s="10" t="s">
         <v>778</v>
       </c>
@@ -7601,7 +7647,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="3:6">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C114" s="10" t="s">
         <v>779</v>
       </c>
@@ -7615,7 +7661,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="3:6">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C115" s="10" t="s">
         <v>780</v>
       </c>
@@ -7629,7 +7675,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="116" spans="3:6">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C116" s="10" t="s">
         <v>912</v>
       </c>
@@ -7643,7 +7689,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="3:6">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C117" s="10" t="s">
         <v>913</v>
       </c>
@@ -7657,7 +7703,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="118" spans="3:6">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C118" s="10" t="s">
         <v>914</v>
       </c>
@@ -7671,7 +7717,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="3:6">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C119" s="10" t="s">
         <v>1162</v>
       </c>
@@ -7685,7 +7731,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="120" spans="3:6">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C120" s="10" t="s">
         <v>1163</v>
       </c>
@@ -7699,7 +7745,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="3:6">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C121" s="10" t="s">
         <v>1164</v>
       </c>
@@ -7713,7 +7759,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="122" spans="3:6">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C122" s="8"/>
       <c r="D122" s="10" t="s">
         <v>251</v>
@@ -7725,7 +7771,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="123" spans="3:6">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C123" s="8"/>
       <c r="D123" s="10" t="s">
         <v>252</v>
@@ -7737,7 +7783,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="124" spans="3:6">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C124" s="8"/>
       <c r="D124" s="10" t="s">
         <v>253</v>
@@ -7749,7 +7795,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="125" spans="3:6">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C125" s="8"/>
       <c r="D125" s="10" t="s">
         <v>254</v>
@@ -7761,7 +7807,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="3:6">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C126" s="8"/>
       <c r="D126" s="10" t="s">
         <v>255</v>
@@ -7773,7 +7819,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="127" spans="3:6">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C127" s="8"/>
       <c r="D127" s="10" t="s">
         <v>256</v>
@@ -7785,7 +7831,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="128" spans="3:6">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C128" s="8"/>
       <c r="D128" s="10" t="s">
         <v>257</v>
@@ -7797,7 +7843,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="129" spans="3:6">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C129" s="8"/>
       <c r="D129" s="10" t="s">
         <v>258</v>
@@ -7809,7 +7855,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="130" spans="3:6">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C130" s="8"/>
       <c r="D130" s="10" t="s">
         <v>259</v>
@@ -7821,7 +7867,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="131" spans="3:6">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C131" s="8"/>
       <c r="D131" s="10" t="s">
         <v>260</v>
@@ -7833,7 +7879,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="132" spans="3:6">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C132" s="8"/>
       <c r="D132" s="10" t="s">
         <v>261</v>
@@ -7845,7 +7891,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="133" spans="3:6">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C133" s="8"/>
       <c r="D133" s="10" t="s">
         <v>262</v>
@@ -7857,7 +7903,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="134" spans="3:6">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C134" s="8"/>
       <c r="D134" s="10" t="s">
         <v>263</v>
@@ -7869,7 +7915,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="135" spans="3:6">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C135" s="8"/>
       <c r="D135" s="10" t="s">
         <v>264</v>
@@ -7881,7 +7927,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="136" spans="3:6">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C136" s="8"/>
       <c r="D136" s="10" t="s">
         <v>265</v>
@@ -7893,7 +7939,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="137" spans="3:6">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C137" s="8"/>
       <c r="D137" s="10" t="s">
         <v>266</v>
@@ -7905,7 +7951,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="138" spans="3:6">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C138" s="8"/>
       <c r="D138" s="10" t="s">
         <v>267</v>
@@ -7917,7 +7963,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="139" spans="3:6">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C139" s="8"/>
       <c r="D139" s="10" t="s">
         <v>268</v>
@@ -7929,7 +7975,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="140" spans="3:6">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C140" s="8"/>
       <c r="D140" s="10" t="s">
         <v>269</v>
@@ -7941,7 +7987,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="141" spans="3:6">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C141" s="8"/>
       <c r="D141" s="10" t="s">
         <v>270</v>
@@ -7953,7 +7999,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="142" spans="3:6">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C142" s="8"/>
       <c r="D142" s="10" t="s">
         <v>271</v>
@@ -7965,7 +8011,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="143" spans="3:6">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C143" s="8"/>
       <c r="D143" s="10" t="s">
         <v>272</v>
@@ -7977,7 +8023,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="144" spans="3:6">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C144" s="8"/>
       <c r="D144" s="10" t="s">
         <v>273</v>
@@ -7989,7 +8035,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="145" spans="3:6">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C145" s="8"/>
       <c r="D145" s="10" t="s">
         <v>274</v>
@@ -8001,7 +8047,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="146" spans="3:6">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C146" s="8"/>
       <c r="D146" s="10" t="s">
         <v>275</v>
@@ -8013,7 +8059,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="147" spans="3:6">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C147" s="8"/>
       <c r="D147" s="10" t="s">
         <v>276</v>
@@ -8025,7 +8071,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="148" spans="3:6">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C148" s="8"/>
       <c r="D148" s="10" t="s">
         <v>277</v>
@@ -8037,7 +8083,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="149" spans="3:6">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C149" s="8"/>
       <c r="D149" s="10" t="s">
         <v>278</v>
@@ -8049,7 +8095,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="150" spans="3:6">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C150" s="8"/>
       <c r="D150" s="10" t="s">
         <v>279</v>
@@ -8061,7 +8107,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="151" spans="3:6">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151" s="8"/>
       <c r="D151" s="10" t="s">
         <v>280</v>
@@ -8073,7 +8119,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="152" spans="3:6">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C152" s="8"/>
       <c r="D152" s="10" t="s">
         <v>281</v>
@@ -8085,7 +8131,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="153" spans="3:6">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C153" s="8"/>
       <c r="D153" s="10" t="s">
         <v>282</v>
@@ -8097,7 +8143,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="154" spans="3:6">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C154" s="8"/>
       <c r="D154" s="10" t="s">
         <v>283</v>
@@ -8109,7 +8155,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="155" spans="3:6">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C155" s="8"/>
       <c r="D155" s="10" t="s">
         <v>284</v>
@@ -8121,7 +8167,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="156" spans="3:6">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C156" s="8"/>
       <c r="D156" s="10" t="s">
         <v>285</v>
@@ -8133,7 +8179,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="157" spans="3:6">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C157" s="8"/>
       <c r="D157" s="10" t="s">
         <v>286</v>
@@ -8145,7 +8191,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="158" spans="3:6">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C158" s="8"/>
       <c r="D158" s="10" t="s">
         <v>287</v>
@@ -8157,7 +8203,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="159" spans="3:6">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C159" s="8"/>
       <c r="D159" s="10" t="s">
         <v>288</v>
@@ -8169,7 +8215,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="160" spans="3:6">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C160" s="8"/>
       <c r="D160" s="10" t="s">
         <v>289</v>
@@ -8181,7 +8227,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="161" spans="3:6">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C161" s="8"/>
       <c r="D161" s="10" t="s">
         <v>290</v>
@@ -8193,7 +8239,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="162" spans="3:6">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C162" s="8"/>
       <c r="D162" s="10" t="s">
         <v>291</v>
@@ -8205,7 +8251,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="163" spans="3:6">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C163" s="8"/>
       <c r="D163" s="10" t="s">
         <v>292</v>
@@ -8217,7 +8263,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="164" spans="3:6">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C164" s="8"/>
       <c r="D164" s="10" t="s">
         <v>293</v>
@@ -8229,7 +8275,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="165" spans="3:6">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C165" s="8"/>
       <c r="D165" s="10" t="s">
         <v>294</v>
@@ -8241,7 +8287,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="166" spans="3:6">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C166" s="8"/>
       <c r="D166" s="10" t="s">
         <v>295</v>
@@ -8253,7 +8299,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="167" spans="3:6">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C167" s="8"/>
       <c r="D167" s="10" t="s">
         <v>296</v>
@@ -8265,7 +8311,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="168" spans="3:6">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C168" s="8"/>
       <c r="D168" s="10" t="s">
         <v>299</v>
@@ -8277,7 +8323,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="169" spans="3:6">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C169" s="8"/>
       <c r="D169" s="10" t="s">
         <v>300</v>
@@ -8289,7 +8335,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="170" spans="3:6">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C170" s="8"/>
       <c r="D170" s="10" t="s">
         <v>301</v>
@@ -8301,7 +8347,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="171" spans="3:6">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C171" s="8"/>
       <c r="D171" s="10" t="s">
         <v>302</v>
@@ -8313,7 +8359,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="172" spans="3:6">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C172" s="8"/>
       <c r="D172" s="10" t="s">
         <v>303</v>
@@ -8325,7 +8371,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="173" spans="3:6">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C173" s="8"/>
       <c r="D173" s="10" t="s">
         <v>304</v>
@@ -8337,7 +8383,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="174" spans="3:6">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C174" s="8"/>
       <c r="D174" s="10" t="s">
         <v>305</v>
@@ -8349,7 +8395,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="175" spans="3:6">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C175" s="8"/>
       <c r="D175" s="10" t="s">
         <v>306</v>
@@ -8361,7 +8407,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="176" spans="3:6">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C176" s="8"/>
       <c r="D176" s="10" t="s">
         <v>307</v>
@@ -8373,7 +8419,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="177" spans="3:6">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C177" s="8"/>
       <c r="D177" s="10" t="s">
         <v>308</v>
@@ -8385,7 +8431,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="178" spans="3:6">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C178" s="8"/>
       <c r="D178" s="10" t="s">
         <v>309</v>
@@ -8397,7 +8443,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="179" spans="3:6">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C179" s="8"/>
       <c r="D179" s="10" t="s">
         <v>310</v>
@@ -8409,7 +8455,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="180" spans="3:6">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C180" s="8"/>
       <c r="D180" s="10" t="s">
         <v>311</v>
@@ -8421,7 +8467,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="181" spans="3:6">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C181" s="8"/>
       <c r="D181" s="10" t="s">
         <v>312</v>
@@ -8433,7 +8479,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="182" spans="3:6">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C182" s="8"/>
       <c r="D182" s="10" t="s">
         <v>313</v>
@@ -8445,7 +8491,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="183" spans="3:6">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C183" s="8"/>
       <c r="D183" s="10" t="s">
         <v>444</v>
@@ -8457,7 +8503,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="184" spans="3:6">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C184" s="8"/>
       <c r="D184" s="10" t="s">
         <v>445</v>
@@ -8469,7 +8515,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="185" spans="3:6">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C185" s="8"/>
       <c r="D185" s="10" t="s">
         <v>446</v>
@@ -8481,7 +8527,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="186" spans="3:6">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C186" s="8"/>
       <c r="D186" s="10" t="s">
         <v>447</v>
@@ -8493,7 +8539,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="187" spans="3:6">
+    <row r="187" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C187" s="8"/>
       <c r="D187" s="10" t="s">
         <v>448</v>
@@ -8505,7 +8551,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="188" spans="3:6">
+    <row r="188" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C188" s="8"/>
       <c r="D188" s="10" t="s">
         <v>449</v>
@@ -8517,7 +8563,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="189" spans="3:6">
+    <row r="189" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C189" s="8"/>
       <c r="D189" s="10" t="s">
         <v>450</v>
@@ -8529,7 +8575,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="190" spans="3:6">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C190" s="8"/>
       <c r="D190" s="10" t="s">
         <v>451</v>
@@ -8541,7 +8587,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="191" spans="3:6">
+    <row r="191" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C191" s="8"/>
       <c r="D191" s="10" t="s">
         <v>452</v>
@@ -8553,7 +8599,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="192" spans="3:6">
+    <row r="192" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C192" s="8"/>
       <c r="D192" s="10" t="s">
         <v>454</v>
@@ -8565,7 +8611,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="193" spans="3:6">
+    <row r="193" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C193" s="8"/>
       <c r="D193" s="10" t="s">
         <v>455</v>
@@ -8577,7 +8623,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="194" spans="3:6">
+    <row r="194" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C194" s="8"/>
       <c r="D194" s="10" t="s">
         <v>457</v>
@@ -8589,7 +8635,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="195" spans="3:6">
+    <row r="195" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C195" s="8"/>
       <c r="D195" s="10" t="s">
         <v>458</v>
@@ -8601,7 +8647,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="196" spans="3:6">
+    <row r="196" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C196" s="8"/>
       <c r="D196" s="10" t="s">
         <v>459</v>
@@ -8613,7 +8659,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="197" spans="3:6">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C197" s="8"/>
       <c r="D197" s="10" t="s">
         <v>460</v>
@@ -8625,7 +8671,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="198" spans="3:6">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C198" s="8"/>
       <c r="D198" s="10" t="s">
         <v>461</v>
@@ -8637,7 +8683,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="199" spans="3:6">
+    <row r="199" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C199" s="8"/>
       <c r="D199" s="10" t="s">
         <v>462</v>
@@ -8649,7 +8695,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="200" spans="3:6">
+    <row r="200" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C200" s="8"/>
       <c r="D200" s="10" t="s">
         <v>463</v>
@@ -8661,7 +8707,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="201" spans="3:6">
+    <row r="201" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C201" s="8"/>
       <c r="D201" s="10" t="s">
         <v>464</v>
@@ -8673,7 +8719,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="202" spans="3:6">
+    <row r="202" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C202" s="8"/>
       <c r="D202" s="10" t="s">
         <v>465</v>
@@ -8685,7 +8731,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="203" spans="3:6">
+    <row r="203" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C203" s="8"/>
       <c r="D203" s="10" t="s">
         <v>466</v>
@@ -8697,7 +8743,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="204" spans="3:6">
+    <row r="204" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C204" s="8"/>
       <c r="D204" s="10" t="s">
         <v>467</v>
@@ -8709,7 +8755,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="205" spans="3:6">
+    <row r="205" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C205" s="8"/>
       <c r="D205" s="10" t="s">
         <v>468</v>
@@ -8721,7 +8767,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="206" spans="3:6">
+    <row r="206" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C206" s="8"/>
       <c r="D206" s="10" t="s">
         <v>469</v>
@@ -8733,7 +8779,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="207" spans="3:6">
+    <row r="207" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C207" s="8"/>
       <c r="D207" s="10" t="s">
         <v>470</v>
@@ -8745,7 +8791,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="208" spans="3:6">
+    <row r="208" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C208" s="8"/>
       <c r="D208" s="10" t="s">
         <v>471</v>
@@ -8757,7 +8803,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="209" spans="3:6">
+    <row r="209" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C209" s="8"/>
       <c r="D209" s="10" t="s">
         <v>472</v>
@@ -8769,7 +8815,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="210" spans="3:6">
+    <row r="210" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C210" s="8"/>
       <c r="D210" s="10" t="s">
         <v>473</v>
@@ -8781,7 +8827,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="211" spans="3:6">
+    <row r="211" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C211" s="8"/>
       <c r="D211" s="10" t="s">
         <v>474</v>
@@ -8793,7 +8839,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="212" spans="3:6">
+    <row r="212" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C212" s="8"/>
       <c r="D212" s="10" t="s">
         <v>475</v>
@@ -8805,7 +8851,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="213" spans="3:6">
+    <row r="213" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C213" s="8"/>
       <c r="D213" s="10" t="s">
         <v>476</v>
@@ -8817,7 +8863,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="214" spans="3:6">
+    <row r="214" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C214" s="8"/>
       <c r="D214" s="10" t="s">
         <v>477</v>
@@ -8829,7 +8875,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="215" spans="3:6">
+    <row r="215" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C215" s="8"/>
       <c r="D215" s="10" t="s">
         <v>478</v>
@@ -8841,7 +8887,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="216" spans="3:6">
+    <row r="216" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C216" s="8"/>
       <c r="D216" s="10" t="s">
         <v>479</v>
@@ -8853,7 +8899,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="217" spans="3:6">
+    <row r="217" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C217" s="8"/>
       <c r="D217" s="10" t="s">
         <v>480</v>
@@ -8865,7 +8911,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="218" spans="3:6">
+    <row r="218" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C218" s="8"/>
       <c r="D218" s="10" t="s">
         <v>481</v>
@@ -8877,7 +8923,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="219" spans="3:6">
+    <row r="219" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C219" s="8"/>
       <c r="D219" s="10" t="s">
         <v>482</v>
@@ -8889,7 +8935,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="220" spans="3:6">
+    <row r="220" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C220" s="8"/>
       <c r="D220" s="10" t="s">
         <v>483</v>
@@ -8901,7 +8947,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="221" spans="3:6">
+    <row r="221" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C221" s="8"/>
       <c r="D221" s="10" t="s">
         <v>484</v>
@@ -8913,7 +8959,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="222" spans="3:6">
+    <row r="222" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C222" s="8"/>
       <c r="D222" s="10" t="s">
         <v>485</v>
@@ -8925,7 +8971,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="223" spans="3:6">
+    <row r="223" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C223" s="8"/>
       <c r="D223" s="10" t="s">
         <v>486</v>
@@ -8937,7 +8983,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="224" spans="3:6">
+    <row r="224" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C224" s="8"/>
       <c r="D224" s="10" t="s">
         <v>487</v>
@@ -8949,7 +8995,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="225" spans="3:6">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C225" s="8"/>
       <c r="D225" s="10" t="s">
         <v>488</v>
@@ -8961,7 +9007,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="226" spans="3:6">
+    <row r="226" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C226" s="8"/>
       <c r="D226" s="10" t="s">
         <v>489</v>
@@ -8973,7 +9019,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="227" spans="3:6">
+    <row r="227" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C227" s="8"/>
       <c r="D227" s="10" t="s">
         <v>490</v>
@@ -8985,7 +9031,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="228" spans="3:6">
+    <row r="228" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C228" s="8"/>
       <c r="D228" s="10" t="s">
         <v>491</v>
@@ -8997,7 +9043,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="229" spans="3:6">
+    <row r="229" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C229" s="8"/>
       <c r="D229" s="10" t="s">
         <v>492</v>
@@ -9009,7 +9055,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="230" spans="3:6">
+    <row r="230" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C230" s="8"/>
       <c r="D230" s="10" t="s">
         <v>493</v>
@@ -9021,7 +9067,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="231" spans="3:6">
+    <row r="231" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C231" s="8"/>
       <c r="D231" s="10" t="s">
         <v>494</v>
@@ -9033,7 +9079,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="232" spans="3:6">
+    <row r="232" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C232" s="8"/>
       <c r="D232" s="10" t="s">
         <v>495</v>
@@ -9045,7 +9091,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="233" spans="3:6">
+    <row r="233" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C233" s="8"/>
       <c r="D233" s="10" t="s">
         <v>500</v>
@@ -9057,7 +9103,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="234" spans="3:6">
+    <row r="234" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C234" s="8"/>
       <c r="D234" s="10" t="s">
         <v>501</v>
@@ -9069,7 +9115,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="235" spans="3:6">
+    <row r="235" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C235" s="8"/>
       <c r="D235" s="10" t="s">
         <v>502</v>
@@ -9081,7 +9127,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="236" spans="3:6">
+    <row r="236" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C236" s="8"/>
       <c r="D236" s="10" t="s">
         <v>503</v>
@@ -9093,7 +9139,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="237" spans="3:6">
+    <row r="237" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C237" s="8"/>
       <c r="D237" s="10" t="s">
         <v>504</v>
@@ -9105,7 +9151,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="238" spans="3:6">
+    <row r="238" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C238" s="8"/>
       <c r="D238" s="10" t="s">
         <v>505</v>
@@ -9117,7 +9163,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="239" spans="3:6">
+    <row r="239" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C239" s="8"/>
       <c r="D239" s="10" t="s">
         <v>506</v>
@@ -9129,7 +9175,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="240" spans="3:6">
+    <row r="240" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C240" s="8"/>
       <c r="D240" s="10" t="s">
         <v>507</v>
@@ -9141,7 +9187,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="241" spans="3:6">
+    <row r="241" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C241" s="8"/>
       <c r="D241" s="10" t="s">
         <v>508</v>
@@ -9151,7 +9197,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="242" spans="3:6">
+    <row r="242" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C242" s="8"/>
       <c r="D242" s="10" t="s">
         <v>509</v>
@@ -9161,7 +9207,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="243" spans="3:6">
+    <row r="243" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C243" s="8"/>
       <c r="D243" s="10" t="s">
         <v>510</v>
@@ -9171,7 +9217,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="244" spans="3:6">
+    <row r="244" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C244" s="8"/>
       <c r="D244" s="10" t="s">
         <v>511</v>
@@ -9181,7 +9227,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="245" spans="3:6">
+    <row r="245" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C245" s="8"/>
       <c r="D245" s="10" t="s">
         <v>512</v>
@@ -9191,7 +9237,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="246" spans="3:6">
+    <row r="246" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C246" s="8"/>
       <c r="D246" s="10" t="s">
         <v>513</v>
@@ -9201,7 +9247,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="247" spans="3:6">
+    <row r="247" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C247" s="8"/>
       <c r="D247" s="10" t="s">
         <v>514</v>
@@ -9211,7 +9257,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="248" spans="3:6">
+    <row r="248" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C248" s="8"/>
       <c r="D248" s="10" t="s">
         <v>515</v>
@@ -9221,7 +9267,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="249" spans="3:6">
+    <row r="249" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C249" s="8"/>
       <c r="D249" s="10" t="s">
         <v>516</v>
@@ -9231,7 +9277,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="250" spans="3:6">
+    <row r="250" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C250" s="8"/>
       <c r="D250" s="10" t="s">
         <v>517</v>
@@ -9241,7 +9287,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="251" spans="3:6">
+    <row r="251" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C251" s="8"/>
       <c r="D251" s="10" t="s">
         <v>518</v>
@@ -9251,7 +9297,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="252" spans="3:6">
+    <row r="252" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C252" s="8"/>
       <c r="D252" s="10" t="s">
         <v>519</v>
@@ -9261,7 +9307,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="253" spans="3:6">
+    <row r="253" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C253" s="8"/>
       <c r="D253" s="10" t="s">
         <v>520</v>
@@ -9271,7 +9317,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="254" spans="3:6">
+    <row r="254" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C254" s="8"/>
       <c r="D254" s="10" t="s">
         <v>521</v>
@@ -9281,7 +9327,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="255" spans="3:6">
+    <row r="255" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C255" s="8"/>
       <c r="D255" s="10" t="s">
         <v>522</v>
@@ -9291,7 +9337,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="256" spans="3:6">
+    <row r="256" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C256" s="8"/>
       <c r="D256" s="10" t="s">
         <v>523</v>
@@ -9301,7 +9347,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="257" spans="3:6">
+    <row r="257" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C257" s="8"/>
       <c r="D257" s="10" t="s">
         <v>524</v>
@@ -9311,7 +9357,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="258" spans="3:6">
+    <row r="258" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C258" s="8"/>
       <c r="D258" s="10" t="s">
         <v>525</v>
@@ -9321,7 +9367,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="259" spans="3:6">
+    <row r="259" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C259" s="8"/>
       <c r="D259" s="10" t="s">
         <v>526</v>
@@ -9331,7 +9377,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="260" spans="3:6">
+    <row r="260" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C260" s="8"/>
       <c r="D260" s="10" t="s">
         <v>527</v>
@@ -9341,7 +9387,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="261" spans="3:6">
+    <row r="261" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C261" s="8"/>
       <c r="D261" s="10" t="s">
         <v>528</v>
@@ -9351,7 +9397,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="262" spans="3:6">
+    <row r="262" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C262" s="8"/>
       <c r="D262" s="10" t="s">
         <v>529</v>
@@ -9361,7 +9407,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="263" spans="3:6">
+    <row r="263" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C263" s="8"/>
       <c r="D263" s="10" t="s">
         <v>530</v>
@@ -9371,7 +9417,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="264" spans="3:6">
+    <row r="264" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C264" s="8"/>
       <c r="D264" s="10" t="s">
         <v>531</v>
@@ -9381,7 +9427,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="265" spans="3:6">
+    <row r="265" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C265" s="8"/>
       <c r="D265" s="10" t="s">
         <v>532</v>
@@ -9391,7 +9437,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="266" spans="3:6">
+    <row r="266" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C266" s="8"/>
       <c r="D266" s="10" t="s">
         <v>533</v>
@@ -9401,7 +9447,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="267" spans="3:6">
+    <row r="267" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C267" s="8"/>
       <c r="D267" s="10" t="s">
         <v>534</v>
@@ -9411,7 +9457,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="268" spans="3:6">
+    <row r="268" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C268" s="8"/>
       <c r="D268" s="10" t="s">
         <v>535</v>
@@ -9421,7 +9467,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="269" spans="3:6">
+    <row r="269" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C269" s="8"/>
       <c r="D269" s="10" t="s">
         <v>536</v>
@@ -9431,7 +9477,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="270" spans="3:6">
+    <row r="270" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C270" s="8"/>
       <c r="D270" s="10" t="s">
         <v>537</v>
@@ -9441,7 +9487,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="271" spans="3:6">
+    <row r="271" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C271" s="8"/>
       <c r="D271" s="10" t="s">
         <v>538</v>
@@ -9451,7 +9497,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="272" spans="3:6">
+    <row r="272" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C272" s="8"/>
       <c r="D272" s="10" t="s">
         <v>539</v>
@@ -9461,7 +9507,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="273" spans="3:6">
+    <row r="273" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C273" s="8"/>
       <c r="D273" s="10" t="s">
         <v>540</v>
@@ -9471,7 +9517,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="274" spans="3:6">
+    <row r="274" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C274" s="8"/>
       <c r="D274" s="10" t="s">
         <v>541</v>
@@ -9481,7 +9527,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="275" spans="3:6">
+    <row r="275" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C275" s="8"/>
       <c r="D275" s="10" t="s">
         <v>542</v>
@@ -9491,7 +9537,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="276" spans="3:6">
+    <row r="276" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C276" s="8"/>
       <c r="D276" s="10" t="s">
         <v>543</v>
@@ -9501,7 +9547,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="277" spans="3:6">
+    <row r="277" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C277" s="8"/>
       <c r="D277" s="10" t="s">
         <v>544</v>
@@ -9511,7 +9557,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="278" spans="3:6">
+    <row r="278" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C278" s="8"/>
       <c r="D278" s="10" t="s">
         <v>545</v>
@@ -9521,7 +9567,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="279" spans="3:6">
+    <row r="279" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C279" s="8"/>
       <c r="D279" s="10" t="s">
         <v>546</v>
@@ -9531,7 +9577,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="280" spans="3:6">
+    <row r="280" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C280" s="8"/>
       <c r="D280" s="10" t="s">
         <v>547</v>
@@ -9541,7 +9587,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="281" spans="3:6">
+    <row r="281" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C281" s="8"/>
       <c r="D281" s="10" t="s">
         <v>548</v>
@@ -9551,7 +9597,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="282" spans="3:6">
+    <row r="282" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C282" s="8"/>
       <c r="D282" s="10" t="s">
         <v>549</v>
@@ -9561,7 +9607,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="283" spans="3:6">
+    <row r="283" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C283" s="8"/>
       <c r="D283" s="10" t="s">
         <v>550</v>
@@ -9571,7 +9617,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="284" spans="3:6">
+    <row r="284" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C284" s="8"/>
       <c r="D284" s="10" t="s">
         <v>551</v>
@@ -9581,7 +9627,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="285" spans="3:6">
+    <row r="285" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C285" s="8"/>
       <c r="D285" s="10" t="s">
         <v>552</v>
@@ -9591,7 +9637,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="286" spans="3:6">
+    <row r="286" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C286" s="8"/>
       <c r="D286" s="10" t="s">
         <v>553</v>
@@ -9601,7 +9647,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="287" spans="3:6">
+    <row r="287" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C287" s="8"/>
       <c r="D287" s="10" t="s">
         <v>556</v>
@@ -9611,7 +9657,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="288" spans="3:6">
+    <row r="288" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C288" s="8"/>
       <c r="D288" s="10" t="s">
         <v>605</v>
@@ -9621,7 +9667,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="289" spans="3:6">
+    <row r="289" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C289" s="8"/>
       <c r="D289" s="10" t="s">
         <v>606</v>
@@ -9631,7 +9677,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="290" spans="3:6">
+    <row r="290" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C290" s="8"/>
       <c r="D290" s="10" t="s">
         <v>607</v>
@@ -9641,7 +9687,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="291" spans="3:6">
+    <row r="291" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C291" s="8"/>
       <c r="D291" s="10" t="s">
         <v>608</v>
@@ -9651,7 +9697,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="292" spans="3:6">
+    <row r="292" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C292" s="8"/>
       <c r="D292" s="10" t="s">
         <v>609</v>
@@ -9661,7 +9707,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="293" spans="3:6">
+    <row r="293" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C293" s="8"/>
       <c r="D293" s="10" t="s">
         <v>610</v>
@@ -9671,7 +9717,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="294" spans="3:6">
+    <row r="294" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C294" s="8"/>
       <c r="D294" s="10" t="s">
         <v>611</v>
@@ -9681,7 +9727,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="295" spans="3:6">
+    <row r="295" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C295" s="8"/>
       <c r="D295" s="10" t="s">
         <v>612</v>
@@ -9691,7 +9737,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="296" spans="3:6">
+    <row r="296" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C296" s="8"/>
       <c r="D296" s="10" t="s">
         <v>638</v>
@@ -9701,7 +9747,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="297" spans="3:6">
+    <row r="297" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C297" s="8"/>
       <c r="D297" s="10" t="s">
         <v>639</v>
@@ -9711,7 +9757,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="298" spans="3:6">
+    <row r="298" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C298" s="8"/>
       <c r="D298" s="10" t="s">
         <v>640</v>
@@ -9721,7 +9767,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="299" spans="3:6">
+    <row r="299" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C299" s="8"/>
       <c r="D299" s="10" t="s">
         <v>641</v>
@@ -9731,7 +9777,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="300" spans="3:6">
+    <row r="300" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C300" s="8"/>
       <c r="D300" s="10" t="s">
         <v>642</v>
@@ -9741,7 +9787,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="301" spans="3:6">
+    <row r="301" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C301" s="8"/>
       <c r="D301" s="10" t="s">
         <v>643</v>
@@ -9751,7 +9797,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="302" spans="3:6">
+    <row r="302" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C302" s="8"/>
       <c r="D302" s="10" t="s">
         <v>644</v>
@@ -9761,7 +9807,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="303" spans="3:6">
+    <row r="303" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C303" s="8"/>
       <c r="D303" s="10" t="s">
         <v>645</v>
@@ -9771,7 +9817,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="304" spans="3:6">
+    <row r="304" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C304" s="8"/>
       <c r="D304" s="10" t="s">
         <v>655</v>
@@ -9781,7 +9827,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="305" spans="3:6">
+    <row r="305" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C305" s="8"/>
       <c r="D305" s="10" t="s">
         <v>656</v>
@@ -9791,7 +9837,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="306" spans="3:6">
+    <row r="306" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C306" s="8"/>
       <c r="D306" s="10" t="s">
         <v>657</v>
@@ -9801,7 +9847,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="307" spans="3:6">
+    <row r="307" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C307" s="8"/>
       <c r="D307" s="10" t="s">
         <v>658</v>
@@ -9811,7 +9857,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="308" spans="3:6">
+    <row r="308" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C308" s="8"/>
       <c r="D308" s="10" t="s">
         <v>659</v>
@@ -9821,7 +9867,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="309" spans="3:6">
+    <row r="309" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C309" s="8"/>
       <c r="D309" s="10" t="s">
         <v>660</v>
@@ -9831,7 +9877,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="310" spans="3:6">
+    <row r="310" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C310" s="8"/>
       <c r="D310" s="10" t="s">
         <v>661</v>
@@ -9841,7 +9887,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="311" spans="3:6">
+    <row r="311" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C311" s="8"/>
       <c r="D311" s="10" t="s">
         <v>662</v>
@@ -9851,7 +9897,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="312" spans="3:6">
+    <row r="312" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C312" s="8"/>
       <c r="D312" s="10" t="s">
         <v>663</v>
@@ -9861,7 +9907,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="313" spans="3:6">
+    <row r="313" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C313" s="8"/>
       <c r="D313" s="10" t="s">
         <v>664</v>
@@ -9871,7 +9917,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="314" spans="3:6">
+    <row r="314" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C314" s="8"/>
       <c r="D314" s="10" t="s">
         <v>665</v>
@@ -9881,7 +9927,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="315" spans="3:6">
+    <row r="315" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C315" s="8"/>
       <c r="D315" s="10" t="s">
         <v>666</v>
@@ -9891,7 +9937,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="316" spans="3:6">
+    <row r="316" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C316" s="8"/>
       <c r="D316" s="10" t="s">
         <v>667</v>
@@ -9901,7 +9947,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="317" spans="3:6">
+    <row r="317" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C317" s="8"/>
       <c r="D317" s="10" t="s">
         <v>668</v>
@@ -9911,7 +9957,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="318" spans="3:6">
+    <row r="318" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C318" s="8"/>
       <c r="D318" s="10" t="s">
         <v>669</v>
@@ -9921,7 +9967,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="319" spans="3:6">
+    <row r="319" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C319" s="8"/>
       <c r="D319" s="10" t="s">
         <v>670</v>
@@ -9931,7 +9977,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="320" spans="3:6">
+    <row r="320" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C320" s="8"/>
       <c r="D320" s="10" t="s">
         <v>671</v>
@@ -9941,7 +9987,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="321" spans="3:6">
+    <row r="321" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C321" s="8"/>
       <c r="D321" s="10" t="s">
         <v>685</v>
@@ -9951,7 +9997,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="322" spans="3:6">
+    <row r="322" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C322" s="8"/>
       <c r="D322" s="10" t="s">
         <v>686</v>
@@ -9961,7 +10007,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="323" spans="3:6">
+    <row r="323" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C323" s="8"/>
       <c r="D323" s="10" t="s">
         <v>705</v>
@@ -9971,7 +10017,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="324" spans="3:6">
+    <row r="324" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C324" s="8"/>
       <c r="D324" s="10" t="s">
         <v>716</v>
@@ -9981,7 +10027,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="325" spans="3:6">
+    <row r="325" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C325" s="8"/>
       <c r="D325" s="10" t="s">
         <v>717</v>
@@ -9991,7 +10037,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="326" spans="3:6">
+    <row r="326" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C326" s="8"/>
       <c r="D326" s="10" t="s">
         <v>718</v>
@@ -10001,7 +10047,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="327" spans="3:6">
+    <row r="327" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C327" s="8"/>
       <c r="D327" s="10" t="s">
         <v>719</v>
@@ -10011,7 +10057,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="328" spans="3:6">
+    <row r="328" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C328" s="8"/>
       <c r="D328" s="10" t="s">
         <v>724</v>
@@ -10021,7 +10067,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="329" spans="3:6">
+    <row r="329" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C329" s="8"/>
       <c r="D329" s="10" t="s">
         <v>725</v>
@@ -10031,7 +10077,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="330" spans="3:6">
+    <row r="330" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C330" s="8"/>
       <c r="D330" s="10" t="s">
         <v>726</v>
@@ -10041,7 +10087,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="331" spans="3:6">
+    <row r="331" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C331" s="8"/>
       <c r="D331" s="10" t="s">
         <v>727</v>
@@ -10051,7 +10097,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="332" spans="3:6">
+    <row r="332" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C332" s="8"/>
       <c r="D332" s="10" t="s">
         <v>728</v>
@@ -10061,7 +10107,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="333" spans="3:6">
+    <row r="333" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C333" s="8"/>
       <c r="D333" s="10" t="s">
         <v>729</v>
@@ -10071,7 +10117,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="334" spans="3:6">
+    <row r="334" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C334" s="8"/>
       <c r="D334" s="10" t="s">
         <v>730</v>
@@ -10081,7 +10127,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="335" spans="3:6">
+    <row r="335" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C335" s="8"/>
       <c r="D335" s="10" t="s">
         <v>731</v>
@@ -10091,7 +10137,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="336" spans="3:6">
+    <row r="336" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C336" s="8"/>
       <c r="D336" s="10" t="s">
         <v>732</v>
@@ -10101,7 +10147,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="337" spans="3:6">
+    <row r="337" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C337" s="8"/>
       <c r="D337" s="10" t="s">
         <v>733</v>
@@ -10111,7 +10157,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="338" spans="3:6">
+    <row r="338" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C338" s="8"/>
       <c r="D338" s="10" t="s">
         <v>734</v>
@@ -10121,7 +10167,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="339" spans="3:6">
+    <row r="339" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C339" s="8"/>
       <c r="D339" s="10" t="s">
         <v>735</v>
@@ -10131,7 +10177,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="340" spans="3:6">
+    <row r="340" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C340" s="8"/>
       <c r="D340" s="10" t="s">
         <v>736</v>
@@ -10141,7 +10187,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="341" spans="3:6">
+    <row r="341" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C341" s="8"/>
       <c r="D341" s="10" t="s">
         <v>737</v>
@@ -10151,7 +10197,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="342" spans="3:6">
+    <row r="342" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C342" s="8"/>
       <c r="D342" s="10" t="s">
         <v>738</v>
@@ -10161,7 +10207,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="343" spans="3:6">
+    <row r="343" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C343" s="8"/>
       <c r="D343" s="10" t="s">
         <v>739</v>
@@ -10171,7 +10217,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="344" spans="3:6">
+    <row r="344" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C344" s="8"/>
       <c r="D344" s="10" t="s">
         <v>740</v>
@@ -10181,7 +10227,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="345" spans="3:6">
+    <row r="345" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C345" s="8"/>
       <c r="D345" s="10" t="s">
         <v>741</v>
@@ -10191,7 +10237,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="346" spans="3:6">
+    <row r="346" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C346" s="8"/>
       <c r="D346" s="10" t="s">
         <v>742</v>
@@ -10201,7 +10247,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="347" spans="3:6">
+    <row r="347" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C347" s="8"/>
       <c r="D347" s="10" t="s">
         <v>743</v>
@@ -10211,7 +10257,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="348" spans="3:6">
+    <row r="348" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C348" s="8"/>
       <c r="D348" s="10" t="s">
         <v>744</v>
@@ -10221,7 +10267,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="349" spans="3:6">
+    <row r="349" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C349" s="8"/>
       <c r="D349" s="10" t="s">
         <v>745</v>
@@ -10231,7 +10277,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="350" spans="3:6">
+    <row r="350" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C350" s="8"/>
       <c r="D350" s="10" t="s">
         <v>746</v>
@@ -10241,7 +10287,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="351" spans="3:6">
+    <row r="351" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C351" s="8"/>
       <c r="D351" s="10" t="s">
         <v>747</v>
@@ -10251,7 +10297,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="352" spans="3:6">
+    <row r="352" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C352" s="8"/>
       <c r="D352" s="10" t="s">
         <v>748</v>
@@ -10261,7 +10307,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="353" spans="3:6">
+    <row r="353" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C353" s="8"/>
       <c r="D353" s="10" t="s">
         <v>749</v>
@@ -10271,7 +10317,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="354" spans="3:6">
+    <row r="354" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C354" s="8"/>
       <c r="D354" s="10" t="s">
         <v>755</v>
@@ -10281,7 +10327,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="355" spans="3:6">
+    <row r="355" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C355" s="8"/>
       <c r="D355" s="10" t="s">
         <v>781</v>
@@ -10291,7 +10337,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="356" spans="3:6">
+    <row r="356" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C356" s="8"/>
       <c r="D356" s="10" t="s">
         <v>785</v>
@@ -10301,7 +10347,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="357" spans="3:6">
+    <row r="357" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C357" s="8"/>
       <c r="D357" s="10" t="s">
         <v>786</v>
@@ -10311,7 +10357,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="358" spans="3:6">
+    <row r="358" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C358" s="8"/>
       <c r="D358" s="10" t="s">
         <v>787</v>
@@ -10321,7 +10367,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="359" spans="3:6">
+    <row r="359" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C359" s="8"/>
       <c r="D359" s="10" t="s">
         <v>788</v>
@@ -10331,7 +10377,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="360" spans="3:6">
+    <row r="360" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C360" s="8"/>
       <c r="D360" s="10" t="s">
         <v>800</v>
@@ -10341,7 +10387,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="361" spans="3:6">
+    <row r="361" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C361" s="8"/>
       <c r="D361" s="10" t="s">
         <v>801</v>
@@ -10351,7 +10397,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="362" spans="3:6">
+    <row r="362" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C362" s="8"/>
       <c r="D362" s="10" t="s">
         <v>802</v>
@@ -10361,7 +10407,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="363" spans="3:6">
+    <row r="363" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C363" s="8"/>
       <c r="D363" s="10" t="s">
         <v>803</v>
@@ -10371,7 +10417,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="364" spans="3:6">
+    <row r="364" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C364" s="8"/>
       <c r="D364" s="10" t="s">
         <v>804</v>
@@ -10381,7 +10427,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="365" spans="3:6">
+    <row r="365" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C365" s="8"/>
       <c r="D365" s="10" t="s">
         <v>805</v>
@@ -10391,7 +10437,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="366" spans="3:6">
+    <row r="366" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C366" s="8"/>
       <c r="D366" s="10" t="s">
         <v>806</v>
@@ -10401,7 +10447,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="367" spans="3:6">
+    <row r="367" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C367" s="8"/>
       <c r="D367" s="10" t="s">
         <v>807</v>
@@ -10411,7 +10457,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="368" spans="3:6">
+    <row r="368" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C368" s="8"/>
       <c r="D368" s="10" t="s">
         <v>808</v>
@@ -10421,7 +10467,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="369" spans="3:6">
+    <row r="369" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C369" s="8"/>
       <c r="D369" s="10" t="s">
         <v>809</v>
@@ -10431,7 +10477,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="370" spans="3:6">
+    <row r="370" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C370" s="8"/>
       <c r="D370" s="10" t="s">
         <v>810</v>
@@ -10441,7 +10487,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="371" spans="3:6">
+    <row r="371" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C371" s="8"/>
       <c r="D371" s="10" t="s">
         <v>811</v>
@@ -10451,7 +10497,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="372" spans="3:6">
+    <row r="372" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C372" s="8"/>
       <c r="D372" s="10" t="s">
         <v>812</v>
@@ -10461,7 +10507,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="373" spans="3:6">
+    <row r="373" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C373" s="8"/>
       <c r="D373" s="10" t="s">
         <v>813</v>
@@ -10471,7 +10517,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="374" spans="3:6">
+    <row r="374" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C374" s="8"/>
       <c r="D374" s="10" t="s">
         <v>814</v>
@@ -10481,7 +10527,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="375" spans="3:6">
+    <row r="375" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C375" s="8"/>
       <c r="D375" s="10" t="s">
         <v>816</v>
@@ -10491,7 +10537,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="376" spans="3:6">
+    <row r="376" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C376" s="8"/>
       <c r="D376" s="10" t="s">
         <v>817</v>
@@ -10501,7 +10547,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="377" spans="3:6">
+    <row r="377" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C377" s="8"/>
       <c r="D377" s="10" t="s">
         <v>818</v>
@@ -10511,7 +10557,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="378" spans="3:6">
+    <row r="378" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C378" s="8"/>
       <c r="D378" s="10" t="s">
         <v>819</v>
@@ -10521,7 +10567,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="379" spans="3:6">
+    <row r="379" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C379" s="8"/>
       <c r="D379" s="10" t="s">
         <v>820</v>
@@ -10531,7 +10577,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="380" spans="3:6">
+    <row r="380" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C380" s="8"/>
       <c r="D380" s="10" t="s">
         <v>821</v>
@@ -10541,7 +10587,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="381" spans="3:6">
+    <row r="381" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C381" s="8"/>
       <c r="D381" s="10" t="s">
         <v>822</v>
@@ -10551,7 +10597,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="382" spans="3:6">
+    <row r="382" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C382" s="8"/>
       <c r="D382" s="10" t="s">
         <v>823</v>
@@ -10561,7 +10607,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="383" spans="3:6">
+    <row r="383" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C383" s="8"/>
       <c r="D383" s="10" t="s">
         <v>824</v>
@@ -10571,7 +10617,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="384" spans="3:6">
+    <row r="384" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C384" s="8"/>
       <c r="D384" s="10" t="s">
         <v>825</v>
@@ -10581,7 +10627,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="385" spans="3:6">
+    <row r="385" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C385" s="8"/>
       <c r="D385" s="10" t="s">
         <v>826</v>
@@ -10591,7 +10637,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="386" spans="3:6">
+    <row r="386" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C386" s="8"/>
       <c r="D386" s="10" t="s">
         <v>829</v>
@@ -10601,7 +10647,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="387" spans="3:6">
+    <row r="387" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C387" s="8"/>
       <c r="D387" s="10" t="s">
         <v>830</v>
@@ -10611,7 +10657,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="388" spans="3:6">
+    <row r="388" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C388" s="8"/>
       <c r="D388" s="10" t="s">
         <v>831</v>
@@ -10621,7 +10667,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="389" spans="3:6">
+    <row r="389" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C389" s="8"/>
       <c r="D389" s="10" t="s">
         <v>832</v>
@@ -10631,7 +10677,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="390" spans="3:6">
+    <row r="390" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C390" s="8"/>
       <c r="D390" s="10" t="s">
         <v>833</v>
@@ -10641,7 +10687,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="391" spans="3:6">
+    <row r="391" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C391" s="8"/>
       <c r="D391" s="10" t="s">
         <v>834</v>
@@ -10651,7 +10697,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="392" spans="3:6">
+    <row r="392" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C392" s="8"/>
       <c r="D392" s="10" t="s">
         <v>835</v>
@@ -10661,7 +10707,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="393" spans="3:6">
+    <row r="393" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C393" s="8"/>
       <c r="D393" s="10" t="s">
         <v>836</v>
@@ -10671,7 +10717,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="394" spans="3:6">
+    <row r="394" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C394" s="8"/>
       <c r="D394" s="10" t="s">
         <v>837</v>
@@ -10681,7 +10727,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="395" spans="3:6">
+    <row r="395" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C395" s="8"/>
       <c r="D395" s="10" t="s">
         <v>838</v>
@@ -10691,7 +10737,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="396" spans="3:6">
+    <row r="396" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C396" s="8"/>
       <c r="D396" s="10" t="s">
         <v>868</v>
@@ -10701,7 +10747,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="397" spans="3:6">
+    <row r="397" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C397" s="8"/>
       <c r="D397" s="10" t="s">
         <v>869</v>
@@ -10711,7 +10757,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="398" spans="3:6">
+    <row r="398" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C398" s="8"/>
       <c r="D398" s="10" t="s">
         <v>870</v>
@@ -10721,7 +10767,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="399" spans="3:6">
+    <row r="399" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C399" s="8"/>
       <c r="D399" s="10" t="s">
         <v>871</v>
@@ -10731,7 +10777,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="400" spans="3:6">
+    <row r="400" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C400" s="8"/>
       <c r="D400" s="10" t="s">
         <v>872</v>
@@ -10741,7 +10787,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="401" spans="3:6">
+    <row r="401" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C401" s="8"/>
       <c r="D401" s="10" t="s">
         <v>873</v>
@@ -10751,7 +10797,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="402" spans="3:6">
+    <row r="402" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C402" s="8"/>
       <c r="D402" s="10" t="s">
         <v>874</v>
@@ -10761,7 +10807,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="403" spans="3:6">
+    <row r="403" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C403" s="8"/>
       <c r="D403" s="10" t="s">
         <v>875</v>
@@ -10771,7 +10817,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="404" spans="3:6">
+    <row r="404" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C404" s="8"/>
       <c r="D404" s="10" t="s">
         <v>876</v>
@@ -10781,7 +10827,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="405" spans="3:6">
+    <row r="405" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C405" s="8"/>
       <c r="D405" s="10" t="s">
         <v>877</v>
@@ -10791,7 +10837,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="406" spans="3:6">
+    <row r="406" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C406" s="8"/>
       <c r="D406" s="10" t="s">
         <v>878</v>
@@ -10801,7 +10847,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="407" spans="3:6">
+    <row r="407" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C407" s="8"/>
       <c r="D407" s="10" t="s">
         <v>879</v>
@@ -10811,7 +10857,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="408" spans="3:6">
+    <row r="408" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C408" s="8"/>
       <c r="D408" s="10" t="s">
         <v>880</v>
@@ -10821,7 +10867,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="409" spans="3:6">
+    <row r="409" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C409" s="8"/>
       <c r="D409" s="10" t="s">
         <v>881</v>
@@ -10831,7 +10877,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="410" spans="3:6">
+    <row r="410" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C410" s="8"/>
       <c r="D410" s="10" t="s">
         <v>882</v>
@@ -10841,7 +10887,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="411" spans="3:6">
+    <row r="411" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C411" s="8"/>
       <c r="D411" s="10" t="s">
         <v>883</v>
@@ -10851,7 +10897,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="412" spans="3:6">
+    <row r="412" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C412" s="8"/>
       <c r="D412" s="10" t="s">
         <v>884</v>
@@ -10861,7 +10907,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="413" spans="3:6">
+    <row r="413" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C413" s="8"/>
       <c r="D413" s="10" t="s">
         <v>885</v>
@@ -10871,7 +10917,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="414" spans="3:6">
+    <row r="414" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C414" s="8"/>
       <c r="D414" s="10" t="s">
         <v>886</v>
@@ -10881,7 +10927,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="415" spans="3:6">
+    <row r="415" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C415" s="8"/>
       <c r="D415" s="10" t="s">
         <v>887</v>
@@ -10891,7 +10937,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="416" spans="3:6">
+    <row r="416" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C416" s="8"/>
       <c r="D416" s="10" t="s">
         <v>888</v>
@@ -10901,7 +10947,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="417" spans="3:6">
+    <row r="417" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C417" s="8"/>
       <c r="D417" s="10" t="s">
         <v>889</v>
@@ -10911,7 +10957,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="418" spans="3:6">
+    <row r="418" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C418" s="8"/>
       <c r="D418" s="10" t="s">
         <v>890</v>
@@ -10921,7 +10967,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="419" spans="3:6">
+    <row r="419" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C419" s="8"/>
       <c r="D419" s="10" t="s">
         <v>891</v>
@@ -10931,7 +10977,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="420" spans="3:6">
+    <row r="420" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C420" s="8"/>
       <c r="D420" s="10" t="s">
         <v>892</v>
@@ -10941,7 +10987,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="421" spans="3:6">
+    <row r="421" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C421" s="8"/>
       <c r="D421" s="10" t="s">
         <v>893</v>
@@ -10951,7 +10997,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="422" spans="3:6">
+    <row r="422" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C422" s="8"/>
       <c r="D422" s="10" t="s">
         <v>894</v>
@@ -10961,7 +11007,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="423" spans="3:6">
+    <row r="423" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C423" s="8"/>
       <c r="D423" s="10" t="s">
         <v>895</v>
@@ -10971,7 +11017,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="424" spans="3:6">
+    <row r="424" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C424" s="8"/>
       <c r="D424" s="10" t="s">
         <v>896</v>
@@ -10981,7 +11027,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="425" spans="3:6">
+    <row r="425" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C425" s="8"/>
       <c r="D425" s="10" t="s">
         <v>897</v>
@@ -10991,7 +11037,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="426" spans="3:6">
+    <row r="426" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C426" s="8"/>
       <c r="D426" s="10" t="s">
         <v>898</v>
@@ -11001,7 +11047,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="427" spans="3:6">
+    <row r="427" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C427" s="8"/>
       <c r="D427" s="10" t="s">
         <v>899</v>
@@ -11011,7 +11057,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="428" spans="3:6">
+    <row r="428" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C428" s="8"/>
       <c r="D428" s="10" t="s">
         <v>900</v>
@@ -11021,7 +11067,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="429" spans="3:6">
+    <row r="429" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C429" s="8"/>
       <c r="D429" s="10" t="s">
         <v>901</v>
@@ -11031,7 +11077,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="430" spans="3:6">
+    <row r="430" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C430" s="8"/>
       <c r="D430" s="10" t="s">
         <v>902</v>
@@ -11041,7 +11087,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="431" spans="3:6">
+    <row r="431" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C431" s="8"/>
       <c r="D431" s="10" t="s">
         <v>903</v>
@@ -11051,7 +11097,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="432" spans="3:6">
+    <row r="432" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C432" s="8"/>
       <c r="D432" s="10" t="s">
         <v>904</v>
@@ -11061,7 +11107,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="433" spans="3:6">
+    <row r="433" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C433" s="8"/>
       <c r="D433" s="10" t="s">
         <v>905</v>
@@ -11069,7 +11115,7 @@
       <c r="E433" s="8"/>
       <c r="F433" s="8"/>
     </row>
-    <row r="434" spans="3:6">
+    <row r="434" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C434" s="8"/>
       <c r="D434" s="10" t="s">
         <v>906</v>
@@ -11077,7 +11123,7 @@
       <c r="E434" s="8"/>
       <c r="F434" s="8"/>
     </row>
-    <row r="435" spans="3:6">
+    <row r="435" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C435" s="8"/>
       <c r="D435" s="10" t="s">
         <v>907</v>
@@ -11085,7 +11131,7 @@
       <c r="E435" s="8"/>
       <c r="F435" s="8"/>
     </row>
-    <row r="436" spans="3:6">
+    <row r="436" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C436" s="8"/>
       <c r="D436" s="10" t="s">
         <v>915</v>
@@ -11093,7 +11139,7 @@
       <c r="E436" s="8"/>
       <c r="F436" s="8"/>
     </row>
-    <row r="437" spans="3:6">
+    <row r="437" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C437" s="8"/>
       <c r="D437" s="10" t="s">
         <v>916</v>
@@ -11101,7 +11147,7 @@
       <c r="E437" s="8"/>
       <c r="F437" s="8"/>
     </row>
-    <row r="438" spans="3:6">
+    <row r="438" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C438" s="8"/>
       <c r="D438" s="10" t="s">
         <v>917</v>
@@ -11109,7 +11155,7 @@
       <c r="E438" s="8"/>
       <c r="F438" s="8"/>
     </row>
-    <row r="439" spans="3:6">
+    <row r="439" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C439" s="8"/>
       <c r="D439" s="10" t="s">
         <v>918</v>
@@ -11117,7 +11163,7 @@
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
     </row>
-    <row r="440" spans="3:6">
+    <row r="440" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C440" s="8"/>
       <c r="D440" s="10" t="s">
         <v>919</v>
@@ -11125,7 +11171,7 @@
       <c r="E440" s="8"/>
       <c r="F440" s="8"/>
     </row>
-    <row r="441" spans="3:6">
+    <row r="441" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C441" s="8"/>
       <c r="D441" s="10" t="s">
         <v>920</v>
@@ -11133,7 +11179,7 @@
       <c r="E441" s="8"/>
       <c r="F441" s="8"/>
     </row>
-    <row r="442" spans="3:6">
+    <row r="442" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C442" s="8"/>
       <c r="D442" s="10" t="s">
         <v>921</v>
@@ -11141,7 +11187,7 @@
       <c r="E442" s="8"/>
       <c r="F442" s="8"/>
     </row>
-    <row r="443" spans="3:6">
+    <row r="443" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C443" s="8"/>
       <c r="D443" s="10" t="s">
         <v>922</v>
@@ -11149,7 +11195,7 @@
       <c r="E443" s="8"/>
       <c r="F443" s="8"/>
     </row>
-    <row r="444" spans="3:6">
+    <row r="444" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C444" s="8"/>
       <c r="D444" s="10" t="s">
         <v>923</v>
@@ -11157,7 +11203,7 @@
       <c r="E444" s="8"/>
       <c r="F444" s="8"/>
     </row>
-    <row r="445" spans="3:6">
+    <row r="445" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C445" s="8"/>
       <c r="D445" s="10" t="s">
         <v>924</v>
@@ -11165,7 +11211,7 @@
       <c r="E445" s="8"/>
       <c r="F445" s="8"/>
     </row>
-    <row r="446" spans="3:6">
+    <row r="446" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C446" s="8"/>
       <c r="D446" s="10" t="s">
         <v>925</v>
@@ -11173,7 +11219,7 @@
       <c r="E446" s="8"/>
       <c r="F446" s="8"/>
     </row>
-    <row r="447" spans="3:6">
+    <row r="447" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C447" s="8"/>
       <c r="D447" s="10" t="s">
         <v>926</v>
@@ -11181,7 +11227,7 @@
       <c r="E447" s="8"/>
       <c r="F447" s="8"/>
     </row>
-    <row r="448" spans="3:6">
+    <row r="448" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C448" s="8"/>
       <c r="D448" s="10" t="s">
         <v>927</v>
@@ -11189,7 +11235,7 @@
       <c r="E448" s="8"/>
       <c r="F448" s="8"/>
     </row>
-    <row r="449" spans="3:6">
+    <row r="449" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C449" s="8"/>
       <c r="D449" s="10" t="s">
         <v>928</v>
@@ -11197,7 +11243,7 @@
       <c r="E449" s="8"/>
       <c r="F449" s="8"/>
     </row>
-    <row r="450" spans="3:6">
+    <row r="450" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C450" s="8"/>
       <c r="D450" s="10" t="s">
         <v>929</v>
@@ -11205,7 +11251,7 @@
       <c r="E450" s="8"/>
       <c r="F450" s="8"/>
     </row>
-    <row r="451" spans="3:6">
+    <row r="451" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C451" s="8"/>
       <c r="D451" s="10" t="s">
         <v>930</v>
@@ -11213,7 +11259,7 @@
       <c r="E451" s="8"/>
       <c r="F451" s="8"/>
     </row>
-    <row r="452" spans="3:6">
+    <row r="452" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C452" s="8"/>
       <c r="D452" s="10" t="s">
         <v>931</v>
@@ -11221,7 +11267,7 @@
       <c r="E452" s="8"/>
       <c r="F452" s="8"/>
     </row>
-    <row r="453" spans="3:6">
+    <row r="453" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C453" s="8"/>
       <c r="D453" s="10" t="s">
         <v>932</v>
@@ -11229,7 +11275,7 @@
       <c r="E453" s="8"/>
       <c r="F453" s="8"/>
     </row>
-    <row r="454" spans="3:6">
+    <row r="454" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C454" s="8"/>
       <c r="D454" s="10" t="s">
         <v>933</v>
@@ -11237,7 +11283,7 @@
       <c r="E454" s="8"/>
       <c r="F454" s="8"/>
     </row>
-    <row r="455" spans="3:6">
+    <row r="455" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C455" s="8"/>
       <c r="D455" s="10" t="s">
         <v>934</v>
@@ -11245,7 +11291,7 @@
       <c r="E455" s="8"/>
       <c r="F455" s="8"/>
     </row>
-    <row r="456" spans="3:6">
+    <row r="456" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C456" s="8"/>
       <c r="D456" s="10" t="s">
         <v>935</v>
@@ -11253,7 +11299,7 @@
       <c r="E456" s="8"/>
       <c r="F456" s="8"/>
     </row>
-    <row r="457" spans="3:6">
+    <row r="457" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C457" s="8"/>
       <c r="D457" s="10" t="s">
         <v>936</v>
@@ -11261,7 +11307,7 @@
       <c r="E457" s="8"/>
       <c r="F457" s="8"/>
     </row>
-    <row r="458" spans="3:6">
+    <row r="458" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C458" s="8"/>
       <c r="D458" s="10" t="s">
         <v>937</v>
@@ -11269,7 +11315,7 @@
       <c r="E458" s="8"/>
       <c r="F458" s="8"/>
     </row>
-    <row r="459" spans="3:6">
+    <row r="459" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C459" s="8"/>
       <c r="D459" s="10" t="s">
         <v>938</v>
@@ -11277,7 +11323,7 @@
       <c r="E459" s="8"/>
       <c r="F459" s="8"/>
     </row>
-    <row r="460" spans="3:6">
+    <row r="460" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C460" s="8"/>
       <c r="D460" s="10" t="s">
         <v>939</v>
@@ -11285,7 +11331,7 @@
       <c r="E460" s="8"/>
       <c r="F460" s="8"/>
     </row>
-    <row r="461" spans="3:6">
+    <row r="461" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C461" s="8"/>
       <c r="D461" s="10" t="s">
         <v>940</v>
@@ -11293,7 +11339,7 @@
       <c r="E461" s="8"/>
       <c r="F461" s="8"/>
     </row>
-    <row r="462" spans="3:6">
+    <row r="462" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C462" s="8"/>
       <c r="D462" s="10" t="s">
         <v>941</v>
@@ -11301,7 +11347,7 @@
       <c r="E462" s="8"/>
       <c r="F462" s="8"/>
     </row>
-    <row r="463" spans="3:6">
+    <row r="463" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C463" s="8"/>
       <c r="D463" s="10" t="s">
         <v>942</v>
@@ -11309,7 +11355,7 @@
       <c r="E463" s="8"/>
       <c r="F463" s="8"/>
     </row>
-    <row r="464" spans="3:6">
+    <row r="464" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C464" s="8"/>
       <c r="D464" s="10" t="s">
         <v>946</v>
@@ -11317,7 +11363,7 @@
       <c r="E464" s="8"/>
       <c r="F464" s="8"/>
     </row>
-    <row r="465" spans="3:6">
+    <row r="465" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C465" s="8"/>
       <c r="D465" s="10" t="s">
         <v>947</v>
@@ -11325,7 +11371,7 @@
       <c r="E465" s="8"/>
       <c r="F465" s="8"/>
     </row>
-    <row r="466" spans="3:6">
+    <row r="466" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C466" s="8"/>
       <c r="D466" s="10" t="s">
         <v>948</v>
@@ -11333,7 +11379,7 @@
       <c r="E466" s="8"/>
       <c r="F466" s="8"/>
     </row>
-    <row r="467" spans="3:6">
+    <row r="467" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C467" s="8"/>
       <c r="D467" s="10" t="s">
         <v>949</v>
@@ -11341,7 +11387,7 @@
       <c r="E467" s="8"/>
       <c r="F467" s="8"/>
     </row>
-    <row r="468" spans="3:6">
+    <row r="468" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C468" s="8"/>
       <c r="D468" s="10" t="s">
         <v>950</v>
@@ -11349,7 +11395,7 @@
       <c r="E468" s="8"/>
       <c r="F468" s="8"/>
     </row>
-    <row r="469" spans="3:6">
+    <row r="469" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C469" s="8"/>
       <c r="D469" s="10" t="s">
         <v>951</v>
@@ -11357,7 +11403,7 @@
       <c r="E469" s="8"/>
       <c r="F469" s="8"/>
     </row>
-    <row r="470" spans="3:6">
+    <row r="470" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C470" s="8"/>
       <c r="D470" s="10" t="s">
         <v>952</v>
@@ -11365,7 +11411,7 @@
       <c r="E470" s="8"/>
       <c r="F470" s="8"/>
     </row>
-    <row r="471" spans="3:6">
+    <row r="471" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C471" s="8"/>
       <c r="D471" s="10" t="s">
         <v>953</v>
@@ -11373,7 +11419,7 @@
       <c r="E471" s="8"/>
       <c r="F471" s="8"/>
     </row>
-    <row r="472" spans="3:6">
+    <row r="472" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C472" s="8"/>
       <c r="D472" s="10" t="s">
         <v>954</v>
@@ -11381,7 +11427,7 @@
       <c r="E472" s="8"/>
       <c r="F472" s="8"/>
     </row>
-    <row r="473" spans="3:6">
+    <row r="473" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C473" s="8"/>
       <c r="D473" s="10" t="s">
         <v>955</v>
@@ -11389,7 +11435,7 @@
       <c r="E473" s="8"/>
       <c r="F473" s="8"/>
     </row>
-    <row r="474" spans="3:6">
+    <row r="474" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C474" s="8"/>
       <c r="D474" s="10" t="s">
         <v>956</v>
@@ -11397,7 +11443,7 @@
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
     </row>
-    <row r="475" spans="3:6">
+    <row r="475" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C475" s="8"/>
       <c r="D475" s="10" t="s">
         <v>957</v>
@@ -11405,7 +11451,7 @@
       <c r="E475" s="8"/>
       <c r="F475" s="8"/>
     </row>
-    <row r="476" spans="3:6">
+    <row r="476" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C476" s="8"/>
       <c r="D476" s="10" t="s">
         <v>958</v>
@@ -11413,7 +11459,7 @@
       <c r="E476" s="8"/>
       <c r="F476" s="8"/>
     </row>
-    <row r="477" spans="3:6">
+    <row r="477" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C477" s="8"/>
       <c r="D477" s="10" t="s">
         <v>959</v>
@@ -11421,7 +11467,7 @@
       <c r="E477" s="8"/>
       <c r="F477" s="8"/>
     </row>
-    <row r="478" spans="3:6">
+    <row r="478" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C478" s="8"/>
       <c r="D478" s="10" t="s">
         <v>960</v>
@@ -11429,7 +11475,7 @@
       <c r="E478" s="8"/>
       <c r="F478" s="8"/>
     </row>
-    <row r="479" spans="3:6">
+    <row r="479" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C479" s="8"/>
       <c r="D479" s="10" t="s">
         <v>961</v>
@@ -11437,7 +11483,7 @@
       <c r="E479" s="8"/>
       <c r="F479" s="8"/>
     </row>
-    <row r="480" spans="3:6">
+    <row r="480" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C480" s="8"/>
       <c r="D480" s="10" t="s">
         <v>962</v>
@@ -11445,7 +11491,7 @@
       <c r="E480" s="8"/>
       <c r="F480" s="8"/>
     </row>
-    <row r="481" spans="3:6">
+    <row r="481" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C481" s="8"/>
       <c r="D481" s="10" t="s">
         <v>987</v>
@@ -11453,7 +11499,7 @@
       <c r="E481" s="8"/>
       <c r="F481" s="8"/>
     </row>
-    <row r="482" spans="3:6">
+    <row r="482" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C482" s="8"/>
       <c r="D482" s="10" t="s">
         <v>998</v>
@@ -11461,7 +11507,7 @@
       <c r="E482" s="8"/>
       <c r="F482" s="8"/>
     </row>
-    <row r="483" spans="3:6">
+    <row r="483" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C483" s="8"/>
       <c r="D483" s="10" t="s">
         <v>999</v>
@@ -11469,7 +11515,7 @@
       <c r="E483" s="8"/>
       <c r="F483" s="8"/>
     </row>
-    <row r="484" spans="3:6">
+    <row r="484" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C484" s="8"/>
       <c r="D484" s="10" t="s">
         <v>1000</v>
@@ -11477,7 +11523,7 @@
       <c r="E484" s="8"/>
       <c r="F484" s="8"/>
     </row>
-    <row r="485" spans="3:6">
+    <row r="485" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C485" s="8"/>
       <c r="D485" s="10" t="s">
         <v>1001</v>
@@ -11485,7 +11531,7 @@
       <c r="E485" s="8"/>
       <c r="F485" s="8"/>
     </row>
-    <row r="486" spans="3:6">
+    <row r="486" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C486" s="8"/>
       <c r="D486" s="10" t="s">
         <v>1002</v>
@@ -11493,7 +11539,7 @@
       <c r="E486" s="8"/>
       <c r="F486" s="8"/>
     </row>
-    <row r="487" spans="3:6">
+    <row r="487" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C487" s="8"/>
       <c r="D487" s="10" t="s">
         <v>1003</v>
@@ -11501,7 +11547,7 @@
       <c r="E487" s="8"/>
       <c r="F487" s="8"/>
     </row>
-    <row r="488" spans="3:6">
+    <row r="488" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C488" s="8"/>
       <c r="D488" s="10" t="s">
         <v>1004</v>
@@ -11509,7 +11555,7 @@
       <c r="E488" s="8"/>
       <c r="F488" s="8"/>
     </row>
-    <row r="489" spans="3:6">
+    <row r="489" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C489" s="8"/>
       <c r="D489" s="10" t="s">
         <v>1005</v>
@@ -11517,7 +11563,7 @@
       <c r="E489" s="8"/>
       <c r="F489" s="8"/>
     </row>
-    <row r="490" spans="3:6">
+    <row r="490" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C490" s="8"/>
       <c r="D490" s="10" t="s">
         <v>1006</v>
@@ -11525,7 +11571,7 @@
       <c r="E490" s="8"/>
       <c r="F490" s="8"/>
     </row>
-    <row r="491" spans="3:6">
+    <row r="491" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C491" s="8"/>
       <c r="D491" s="10" t="s">
         <v>1007</v>
@@ -11533,7 +11579,7 @@
       <c r="E491" s="8"/>
       <c r="F491" s="8"/>
     </row>
-    <row r="492" spans="3:6">
+    <row r="492" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C492" s="8"/>
       <c r="D492" s="10" t="s">
         <v>1008</v>
@@ -11541,7 +11587,7 @@
       <c r="E492" s="8"/>
       <c r="F492" s="8"/>
     </row>
-    <row r="493" spans="3:6">
+    <row r="493" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C493" s="8"/>
       <c r="D493" s="10" t="s">
         <v>1009</v>
@@ -11549,7 +11595,7 @@
       <c r="E493" s="8"/>
       <c r="F493" s="8"/>
     </row>
-    <row r="494" spans="3:6">
+    <row r="494" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C494" s="8"/>
       <c r="D494" s="10" t="s">
         <v>1012</v>
@@ -11557,7 +11603,7 @@
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
     </row>
-    <row r="495" spans="3:6">
+    <row r="495" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C495" s="8"/>
       <c r="D495" s="10" t="s">
         <v>1013</v>
@@ -11565,7 +11611,7 @@
       <c r="E495" s="8"/>
       <c r="F495" s="8"/>
     </row>
-    <row r="496" spans="3:6">
+    <row r="496" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C496" s="8"/>
       <c r="D496" s="10" t="s">
         <v>1014</v>
@@ -11573,7 +11619,7 @@
       <c r="E496" s="8"/>
       <c r="F496" s="8"/>
     </row>
-    <row r="497" spans="3:6">
+    <row r="497" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C497" s="8"/>
       <c r="D497" s="10" t="s">
         <v>1015</v>
@@ -11581,7 +11627,7 @@
       <c r="E497" s="8"/>
       <c r="F497" s="8"/>
     </row>
-    <row r="498" spans="3:6">
+    <row r="498" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C498" s="8"/>
       <c r="D498" s="10" t="s">
         <v>1016</v>
@@ -11589,7 +11635,7 @@
       <c r="E498" s="8"/>
       <c r="F498" s="8"/>
     </row>
-    <row r="499" spans="3:6">
+    <row r="499" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C499" s="8"/>
       <c r="D499" s="10" t="s">
         <v>1017</v>
@@ -11597,7 +11643,7 @@
       <c r="E499" s="8"/>
       <c r="F499" s="8"/>
     </row>
-    <row r="500" spans="3:6">
+    <row r="500" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C500" s="8"/>
       <c r="D500" s="10" t="s">
         <v>1018</v>
@@ -11605,7 +11651,7 @@
       <c r="E500" s="8"/>
       <c r="F500" s="8"/>
     </row>
-    <row r="501" spans="3:6">
+    <row r="501" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C501" s="8"/>
       <c r="D501" s="10" t="s">
         <v>1019</v>
@@ -11613,7 +11659,7 @@
       <c r="E501" s="8"/>
       <c r="F501" s="8"/>
     </row>
-    <row r="502" spans="3:6">
+    <row r="502" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C502" s="8"/>
       <c r="D502" s="10" t="s">
         <v>1023</v>
@@ -11621,7 +11667,7 @@
       <c r="E502" s="8"/>
       <c r="F502" s="8"/>
     </row>
-    <row r="503" spans="3:6">
+    <row r="503" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C503" s="8"/>
       <c r="D503" s="10" t="s">
         <v>1024</v>
@@ -11629,7 +11675,7 @@
       <c r="E503" s="8"/>
       <c r="F503" s="8"/>
     </row>
-    <row r="504" spans="3:6">
+    <row r="504" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C504" s="8"/>
       <c r="D504" s="10" t="s">
         <v>1025</v>
@@ -11637,7 +11683,7 @@
       <c r="E504" s="8"/>
       <c r="F504" s="8"/>
     </row>
-    <row r="505" spans="3:6">
+    <row r="505" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C505" s="8"/>
       <c r="D505" s="10" t="s">
         <v>1026</v>
@@ -11645,7 +11691,7 @@
       <c r="E505" s="8"/>
       <c r="F505" s="8"/>
     </row>
-    <row r="506" spans="3:6">
+    <row r="506" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C506" s="8"/>
       <c r="D506" s="10" t="s">
         <v>1027</v>
@@ -11653,7 +11699,7 @@
       <c r="E506" s="8"/>
       <c r="F506" s="8"/>
     </row>
-    <row r="507" spans="3:6">
+    <row r="507" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C507" s="8"/>
       <c r="D507" s="10" t="s">
         <v>1028</v>
@@ -11661,7 +11707,7 @@
       <c r="E507" s="8"/>
       <c r="F507" s="8"/>
     </row>
-    <row r="508" spans="3:6">
+    <row r="508" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C508" s="8"/>
       <c r="D508" s="10" t="s">
         <v>1029</v>
@@ -11669,7 +11715,7 @@
       <c r="E508" s="8"/>
       <c r="F508" s="8"/>
     </row>
-    <row r="509" spans="3:6">
+    <row r="509" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C509" s="8"/>
       <c r="D509" s="10" t="s">
         <v>1030</v>
@@ -11677,7 +11723,7 @@
       <c r="E509" s="8"/>
       <c r="F509" s="8"/>
     </row>
-    <row r="510" spans="3:6">
+    <row r="510" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C510" s="8"/>
       <c r="D510" s="10" t="s">
         <v>1031</v>
@@ -11685,7 +11731,7 @@
       <c r="E510" s="8"/>
       <c r="F510" s="8"/>
     </row>
-    <row r="511" spans="3:6">
+    <row r="511" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C511" s="8"/>
       <c r="D511" s="10" t="s">
         <v>1032</v>
@@ -11693,7 +11739,7 @@
       <c r="E511" s="8"/>
       <c r="F511" s="8"/>
     </row>
-    <row r="512" spans="3:6">
+    <row r="512" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C512" s="8"/>
       <c r="D512" s="10" t="s">
         <v>1033</v>
@@ -11701,7 +11747,7 @@
       <c r="E512" s="8"/>
       <c r="F512" s="8"/>
     </row>
-    <row r="513" spans="3:6">
+    <row r="513" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C513" s="8"/>
       <c r="D513" s="10" t="s">
         <v>1034</v>
@@ -11709,7 +11755,7 @@
       <c r="E513" s="8"/>
       <c r="F513" s="8"/>
     </row>
-    <row r="514" spans="3:6">
+    <row r="514" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C514" s="8"/>
       <c r="D514" s="10" t="s">
         <v>1035</v>
@@ -11717,7 +11763,7 @@
       <c r="E514" s="8"/>
       <c r="F514" s="8"/>
     </row>
-    <row r="515" spans="3:6">
+    <row r="515" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C515" s="8"/>
       <c r="D515" s="10" t="s">
         <v>1036</v>
@@ -11725,7 +11771,7 @@
       <c r="E515" s="8"/>
       <c r="F515" s="8"/>
     </row>
-    <row r="516" spans="3:6">
+    <row r="516" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C516" s="8"/>
       <c r="D516" s="10" t="s">
         <v>1037</v>
@@ -11733,7 +11779,7 @@
       <c r="E516" s="8"/>
       <c r="F516" s="8"/>
     </row>
-    <row r="517" spans="3:6">
+    <row r="517" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C517" s="8"/>
       <c r="D517" s="10" t="s">
         <v>1038</v>
@@ -11741,7 +11787,7 @@
       <c r="E517" s="8"/>
       <c r="F517" s="8"/>
     </row>
-    <row r="518" spans="3:6">
+    <row r="518" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C518" s="8"/>
       <c r="D518" s="10" t="s">
         <v>1039</v>
@@ -11749,7 +11795,7 @@
       <c r="E518" s="8"/>
       <c r="F518" s="8"/>
     </row>
-    <row r="519" spans="3:6">
+    <row r="519" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C519" s="8"/>
       <c r="D519" s="10" t="s">
         <v>1040</v>
@@ -11757,7 +11803,7 @@
       <c r="E519" s="8"/>
       <c r="F519" s="8"/>
     </row>
-    <row r="520" spans="3:6">
+    <row r="520" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C520" s="8"/>
       <c r="D520" s="10" t="s">
         <v>1041</v>
@@ -11765,7 +11811,7 @@
       <c r="E520" s="8"/>
       <c r="F520" s="8"/>
     </row>
-    <row r="521" spans="3:6">
+    <row r="521" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C521" s="8"/>
       <c r="D521" s="10" t="s">
         <v>1042</v>
@@ -11773,7 +11819,7 @@
       <c r="E521" s="8"/>
       <c r="F521" s="8"/>
     </row>
-    <row r="522" spans="3:6">
+    <row r="522" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C522" s="8"/>
       <c r="D522" s="10" t="s">
         <v>1043</v>
@@ -11781,7 +11827,7 @@
       <c r="E522" s="8"/>
       <c r="F522" s="8"/>
     </row>
-    <row r="523" spans="3:6">
+    <row r="523" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C523" s="8"/>
       <c r="D523" s="10" t="s">
         <v>1044</v>
@@ -11789,7 +11835,7 @@
       <c r="E523" s="8"/>
       <c r="F523" s="8"/>
     </row>
-    <row r="524" spans="3:6">
+    <row r="524" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C524" s="8"/>
       <c r="D524" s="10" t="s">
         <v>1045</v>
@@ -11797,7 +11843,7 @@
       <c r="E524" s="8"/>
       <c r="F524" s="8"/>
     </row>
-    <row r="525" spans="3:6">
+    <row r="525" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C525" s="8"/>
       <c r="D525" s="10" t="s">
         <v>1046</v>
@@ -11805,7 +11851,7 @@
       <c r="E525" s="8"/>
       <c r="F525" s="8"/>
     </row>
-    <row r="526" spans="3:6">
+    <row r="526" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C526" s="8"/>
       <c r="D526" s="10" t="s">
         <v>1047</v>
@@ -11813,7 +11859,7 @@
       <c r="E526" s="8"/>
       <c r="F526" s="8"/>
     </row>
-    <row r="527" spans="3:6">
+    <row r="527" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C527" s="8"/>
       <c r="D527" s="10" t="s">
         <v>1048</v>
@@ -11821,7 +11867,7 @@
       <c r="E527" s="8"/>
       <c r="F527" s="8"/>
     </row>
-    <row r="528" spans="3:6">
+    <row r="528" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C528" s="8"/>
       <c r="D528" s="10" t="s">
         <v>1049</v>
@@ -11829,7 +11875,7 @@
       <c r="E528" s="8"/>
       <c r="F528" s="8"/>
     </row>
-    <row r="529" spans="3:6">
+    <row r="529" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C529" s="8"/>
       <c r="D529" s="10" t="s">
         <v>1050</v>
@@ -11837,7 +11883,7 @@
       <c r="E529" s="8"/>
       <c r="F529" s="8"/>
     </row>
-    <row r="530" spans="3:6">
+    <row r="530" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C530" s="8"/>
       <c r="D530" s="10" t="s">
         <v>1051</v>
@@ -11845,7 +11891,7 @@
       <c r="E530" s="8"/>
       <c r="F530" s="8"/>
     </row>
-    <row r="531" spans="3:6">
+    <row r="531" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C531" s="8"/>
       <c r="D531" s="10" t="s">
         <v>1060</v>
@@ -11853,7 +11899,7 @@
       <c r="E531" s="8"/>
       <c r="F531" s="8"/>
     </row>
-    <row r="532" spans="3:6">
+    <row r="532" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C532" s="8"/>
       <c r="D532" s="10" t="s">
         <v>1061</v>
@@ -11861,7 +11907,7 @@
       <c r="E532" s="8"/>
       <c r="F532" s="8"/>
     </row>
-    <row r="533" spans="3:6">
+    <row r="533" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C533" s="8"/>
       <c r="D533" s="10" t="s">
         <v>1062</v>
@@ -11869,7 +11915,7 @@
       <c r="E533" s="8"/>
       <c r="F533" s="8"/>
     </row>
-    <row r="534" spans="3:6">
+    <row r="534" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C534" s="8"/>
       <c r="D534" s="10" t="s">
         <v>1063</v>
@@ -11877,7 +11923,7 @@
       <c r="E534" s="8"/>
       <c r="F534" s="8"/>
     </row>
-    <row r="535" spans="3:6">
+    <row r="535" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C535" s="8"/>
       <c r="D535" s="10" t="s">
         <v>1069</v>
@@ -11885,7 +11931,7 @@
       <c r="E535" s="8"/>
       <c r="F535" s="8"/>
     </row>
-    <row r="536" spans="3:6">
+    <row r="536" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C536" s="8"/>
       <c r="D536" s="10" t="s">
         <v>1070</v>
@@ -11893,7 +11939,7 @@
       <c r="E536" s="8"/>
       <c r="F536" s="8"/>
     </row>
-    <row r="537" spans="3:6">
+    <row r="537" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C537" s="8"/>
       <c r="D537" s="10" t="s">
         <v>1071</v>
@@ -11901,7 +11947,7 @@
       <c r="E537" s="8"/>
       <c r="F537" s="8"/>
     </row>
-    <row r="538" spans="3:6">
+    <row r="538" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C538" s="8"/>
       <c r="D538" s="10" t="s">
         <v>1072</v>
@@ -11909,7 +11955,7 @@
       <c r="E538" s="8"/>
       <c r="F538" s="8"/>
     </row>
-    <row r="539" spans="3:6">
+    <row r="539" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C539" s="8"/>
       <c r="D539" s="10" t="s">
         <v>1073</v>
@@ -11917,7 +11963,7 @@
       <c r="E539" s="8"/>
       <c r="F539" s="8"/>
     </row>
-    <row r="540" spans="3:6">
+    <row r="540" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C540" s="8"/>
       <c r="D540" s="10" t="s">
         <v>1074</v>
@@ -11925,7 +11971,7 @@
       <c r="E540" s="8"/>
       <c r="F540" s="8"/>
     </row>
-    <row r="541" spans="3:6">
+    <row r="541" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C541" s="8"/>
       <c r="D541" s="10" t="s">
         <v>1075</v>
@@ -11933,7 +11979,7 @@
       <c r="E541" s="8"/>
       <c r="F541" s="8"/>
     </row>
-    <row r="542" spans="3:6">
+    <row r="542" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C542" s="8"/>
       <c r="D542" s="10" t="s">
         <v>1076</v>
@@ -11941,7 +11987,7 @@
       <c r="E542" s="8"/>
       <c r="F542" s="8"/>
     </row>
-    <row r="543" spans="3:6">
+    <row r="543" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C543" s="8"/>
       <c r="D543" s="10" t="s">
         <v>1079</v>
@@ -11949,7 +11995,7 @@
       <c r="E543" s="8"/>
       <c r="F543" s="8"/>
     </row>
-    <row r="544" spans="3:6">
+    <row r="544" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C544" s="8"/>
       <c r="D544" s="10" t="s">
         <v>1081</v>
@@ -11957,7 +12003,7 @@
       <c r="E544" s="8"/>
       <c r="F544" s="8"/>
     </row>
-    <row r="545" spans="3:6">
+    <row r="545" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C545" s="8"/>
       <c r="D545" s="10" t="s">
         <v>1082</v>
@@ -11965,7 +12011,7 @@
       <c r="E545" s="8"/>
       <c r="F545" s="8"/>
     </row>
-    <row r="546" spans="3:6">
+    <row r="546" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C546" s="8"/>
       <c r="D546" s="10" t="s">
         <v>1083</v>
@@ -11973,7 +12019,7 @@
       <c r="E546" s="8"/>
       <c r="F546" s="8"/>
     </row>
-    <row r="547" spans="3:6">
+    <row r="547" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C547" s="8"/>
       <c r="D547" s="10" t="s">
         <v>1084</v>
@@ -11981,7 +12027,7 @@
       <c r="E547" s="8"/>
       <c r="F547" s="8"/>
     </row>
-    <row r="548" spans="3:6">
+    <row r="548" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C548" s="8"/>
       <c r="D548" s="10" t="s">
         <v>1085</v>
@@ -11989,7 +12035,7 @@
       <c r="E548" s="8"/>
       <c r="F548" s="8"/>
     </row>
-    <row r="549" spans="3:6">
+    <row r="549" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C549" s="8"/>
       <c r="D549" s="10" t="s">
         <v>1086</v>
@@ -11997,7 +12043,7 @@
       <c r="E549" s="8"/>
       <c r="F549" s="8"/>
     </row>
-    <row r="550" spans="3:6">
+    <row r="550" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C550" s="8"/>
       <c r="D550" s="10" t="s">
         <v>1087</v>
@@ -12005,7 +12051,7 @@
       <c r="E550" s="8"/>
       <c r="F550" s="8"/>
     </row>
-    <row r="551" spans="3:6">
+    <row r="551" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C551" s="8"/>
       <c r="D551" s="10" t="s">
         <v>1088</v>
@@ -12013,7 +12059,7 @@
       <c r="E551" s="8"/>
       <c r="F551" s="8"/>
     </row>
-    <row r="552" spans="3:6">
+    <row r="552" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C552" s="8"/>
       <c r="D552" s="10" t="s">
         <v>1089</v>
@@ -12021,7 +12067,7 @@
       <c r="E552" s="8"/>
       <c r="F552" s="8"/>
     </row>
-    <row r="553" spans="3:6">
+    <row r="553" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C553" s="8"/>
       <c r="D553" s="10" t="s">
         <v>1090</v>
@@ -12029,7 +12075,7 @@
       <c r="E553" s="8"/>
       <c r="F553" s="8"/>
     </row>
-    <row r="554" spans="3:6">
+    <row r="554" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C554" s="8"/>
       <c r="D554" s="10" t="s">
         <v>1091</v>
@@ -12037,7 +12083,7 @@
       <c r="E554" s="8"/>
       <c r="F554" s="8"/>
     </row>
-    <row r="555" spans="3:6">
+    <row r="555" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C555" s="8"/>
       <c r="D555" s="10" t="s">
         <v>1092</v>
@@ -12045,7 +12091,7 @@
       <c r="E555" s="8"/>
       <c r="F555" s="8"/>
     </row>
-    <row r="556" spans="3:6">
+    <row r="556" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C556" s="8"/>
       <c r="D556" s="10" t="s">
         <v>1093</v>
@@ -12053,7 +12099,7 @@
       <c r="E556" s="8"/>
       <c r="F556" s="8"/>
     </row>
-    <row r="557" spans="3:6">
+    <row r="557" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C557" s="8"/>
       <c r="D557" s="10" t="s">
         <v>1094</v>
@@ -12061,7 +12107,7 @@
       <c r="E557" s="8"/>
       <c r="F557" s="8"/>
     </row>
-    <row r="558" spans="3:6">
+    <row r="558" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C558" s="8"/>
       <c r="D558" s="10" t="s">
         <v>1095</v>
@@ -12069,7 +12115,7 @@
       <c r="E558" s="8"/>
       <c r="F558" s="8"/>
     </row>
-    <row r="559" spans="3:6">
+    <row r="559" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C559" s="8"/>
       <c r="D559" s="10" t="s">
         <v>1096</v>
@@ -12077,7 +12123,7 @@
       <c r="E559" s="8"/>
       <c r="F559" s="8"/>
     </row>
-    <row r="560" spans="3:6">
+    <row r="560" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C560" s="8"/>
       <c r="D560" s="10" t="s">
         <v>1097</v>
@@ -12085,7 +12131,7 @@
       <c r="E560" s="8"/>
       <c r="F560" s="8"/>
     </row>
-    <row r="561" spans="3:6">
+    <row r="561" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C561" s="8"/>
       <c r="D561" s="10" t="s">
         <v>1098</v>
@@ -12093,7 +12139,7 @@
       <c r="E561" s="8"/>
       <c r="F561" s="8"/>
     </row>
-    <row r="562" spans="3:6">
+    <row r="562" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C562" s="8"/>
       <c r="D562" s="10" t="s">
         <v>1099</v>
@@ -12101,7 +12147,7 @@
       <c r="E562" s="8"/>
       <c r="F562" s="8"/>
     </row>
-    <row r="563" spans="3:6">
+    <row r="563" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C563" s="8"/>
       <c r="D563" s="10" t="s">
         <v>1100</v>
@@ -12109,7 +12155,7 @@
       <c r="E563" s="8"/>
       <c r="F563" s="8"/>
     </row>
-    <row r="564" spans="3:6">
+    <row r="564" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C564" s="8"/>
       <c r="D564" s="10" t="s">
         <v>1101</v>
@@ -12117,7 +12163,7 @@
       <c r="E564" s="8"/>
       <c r="F564" s="8"/>
     </row>
-    <row r="565" spans="3:6">
+    <row r="565" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C565" s="8"/>
       <c r="D565" s="10" t="s">
         <v>1102</v>
@@ -12125,7 +12171,7 @@
       <c r="E565" s="8"/>
       <c r="F565" s="8"/>
     </row>
-    <row r="566" spans="3:6">
+    <row r="566" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C566" s="8"/>
       <c r="D566" s="10" t="s">
         <v>1103</v>
@@ -12133,7 +12179,7 @@
       <c r="E566" s="8"/>
       <c r="F566" s="8"/>
     </row>
-    <row r="567" spans="3:6">
+    <row r="567" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C567" s="8"/>
       <c r="D567" s="10" t="s">
         <v>1104</v>
@@ -12141,7 +12187,7 @@
       <c r="E567" s="8"/>
       <c r="F567" s="8"/>
     </row>
-    <row r="568" spans="3:6">
+    <row r="568" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C568" s="8"/>
       <c r="D568" s="10" t="s">
         <v>1105</v>
@@ -12149,7 +12195,7 @@
       <c r="E568" s="8"/>
       <c r="F568" s="8"/>
     </row>
-    <row r="569" spans="3:6">
+    <row r="569" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C569" s="8"/>
       <c r="D569" s="10" t="s">
         <v>1106</v>
@@ -12157,7 +12203,7 @@
       <c r="E569" s="8"/>
       <c r="F569" s="8"/>
     </row>
-    <row r="570" spans="3:6">
+    <row r="570" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C570" s="8"/>
       <c r="D570" s="10" t="s">
         <v>1107</v>
@@ -12165,7 +12211,7 @@
       <c r="E570" s="8"/>
       <c r="F570" s="8"/>
     </row>
-    <row r="571" spans="3:6">
+    <row r="571" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C571" s="8"/>
       <c r="D571" s="10" t="s">
         <v>1108</v>
@@ -12173,7 +12219,7 @@
       <c r="E571" s="8"/>
       <c r="F571" s="8"/>
     </row>
-    <row r="572" spans="3:6">
+    <row r="572" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C572" s="8"/>
       <c r="D572" s="10" t="s">
         <v>1109</v>
@@ -12181,7 +12227,7 @@
       <c r="E572" s="8"/>
       <c r="F572" s="8"/>
     </row>
-    <row r="573" spans="3:6">
+    <row r="573" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C573" s="8"/>
       <c r="D573" s="10" t="s">
         <v>1110</v>
@@ -12189,7 +12235,7 @@
       <c r="E573" s="8"/>
       <c r="F573" s="8"/>
     </row>
-    <row r="574" spans="3:6">
+    <row r="574" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C574" s="8"/>
       <c r="D574" s="10" t="s">
         <v>1111</v>
@@ -12197,7 +12243,7 @@
       <c r="E574" s="8"/>
       <c r="F574" s="8"/>
     </row>
-    <row r="575" spans="3:6">
+    <row r="575" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C575" s="8"/>
       <c r="D575" s="10" t="s">
         <v>1112</v>
@@ -12205,7 +12251,7 @@
       <c r="E575" s="8"/>
       <c r="F575" s="8"/>
     </row>
-    <row r="576" spans="3:6">
+    <row r="576" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C576" s="8"/>
       <c r="D576" s="10" t="s">
         <v>1113</v>
@@ -12213,7 +12259,7 @@
       <c r="E576" s="8"/>
       <c r="F576" s="8"/>
     </row>
-    <row r="577" spans="3:6">
+    <row r="577" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C577" s="8"/>
       <c r="D577" s="10" t="s">
         <v>1114</v>
@@ -12221,7 +12267,7 @@
       <c r="E577" s="8"/>
       <c r="F577" s="8"/>
     </row>
-    <row r="578" spans="3:6">
+    <row r="578" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C578" s="8"/>
       <c r="D578" s="10" t="s">
         <v>1115</v>
@@ -12229,7 +12275,7 @@
       <c r="E578" s="8"/>
       <c r="F578" s="8"/>
     </row>
-    <row r="579" spans="3:6">
+    <row r="579" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C579" s="8"/>
       <c r="D579" s="10" t="s">
         <v>1116</v>
@@ -12237,7 +12283,7 @@
       <c r="E579" s="8"/>
       <c r="F579" s="8"/>
     </row>
-    <row r="580" spans="3:6">
+    <row r="580" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C580" s="8"/>
       <c r="D580" s="10" t="s">
         <v>1117</v>
@@ -12245,7 +12291,7 @@
       <c r="E580" s="8"/>
       <c r="F580" s="8"/>
     </row>
-    <row r="581" spans="3:6">
+    <row r="581" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C581" s="8"/>
       <c r="D581" s="10" t="s">
         <v>1118</v>
@@ -12253,7 +12299,7 @@
       <c r="E581" s="8"/>
       <c r="F581" s="8"/>
     </row>
-    <row r="582" spans="3:6">
+    <row r="582" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C582" s="8"/>
       <c r="D582" s="10" t="s">
         <v>1119</v>
@@ -12261,7 +12307,7 @@
       <c r="E582" s="8"/>
       <c r="F582" s="8"/>
     </row>
-    <row r="583" spans="3:6">
+    <row r="583" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C583" s="8"/>
       <c r="D583" s="10" t="s">
         <v>1120</v>
@@ -12269,7 +12315,7 @@
       <c r="E583" s="8"/>
       <c r="F583" s="8"/>
     </row>
-    <row r="584" spans="3:6">
+    <row r="584" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C584" s="8"/>
       <c r="D584" s="10" t="s">
         <v>1121</v>
@@ -12277,7 +12323,7 @@
       <c r="E584" s="8"/>
       <c r="F584" s="8"/>
     </row>
-    <row r="585" spans="3:6">
+    <row r="585" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C585" s="8"/>
       <c r="D585" s="10" t="s">
         <v>1122</v>
@@ -12285,7 +12331,7 @@
       <c r="E585" s="8"/>
       <c r="F585" s="8"/>
     </row>
-    <row r="586" spans="3:6">
+    <row r="586" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C586" s="8"/>
       <c r="D586" s="10" t="s">
         <v>1123</v>
@@ -12293,7 +12339,7 @@
       <c r="E586" s="8"/>
       <c r="F586" s="8"/>
     </row>
-    <row r="587" spans="3:6">
+    <row r="587" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C587" s="8"/>
       <c r="D587" s="10" t="s">
         <v>1124</v>
@@ -12301,7 +12347,7 @@
       <c r="E587" s="8"/>
       <c r="F587" s="8"/>
     </row>
-    <row r="588" spans="3:6">
+    <row r="588" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C588" s="8"/>
       <c r="D588" s="10" t="s">
         <v>1125</v>
@@ -12309,7 +12355,7 @@
       <c r="E588" s="8"/>
       <c r="F588" s="8"/>
     </row>
-    <row r="589" spans="3:6">
+    <row r="589" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C589" s="8"/>
       <c r="D589" s="10" t="s">
         <v>1126</v>
@@ -12317,7 +12363,7 @@
       <c r="E589" s="8"/>
       <c r="F589" s="8"/>
     </row>
-    <row r="590" spans="3:6">
+    <row r="590" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C590" s="8"/>
       <c r="D590" s="10" t="s">
         <v>1127</v>
@@ -12325,7 +12371,7 @@
       <c r="E590" s="8"/>
       <c r="F590" s="8"/>
     </row>
-    <row r="591" spans="3:6">
+    <row r="591" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C591" s="8"/>
       <c r="D591" s="10" t="s">
         <v>1128</v>
@@ -12333,7 +12379,7 @@
       <c r="E591" s="8"/>
       <c r="F591" s="8"/>
     </row>
-    <row r="592" spans="3:6">
+    <row r="592" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C592" s="8"/>
       <c r="D592" s="10" t="s">
         <v>1129</v>
@@ -12341,7 +12387,7 @@
       <c r="E592" s="8"/>
       <c r="F592" s="8"/>
     </row>
-    <row r="593" spans="3:6">
+    <row r="593" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C593" s="8"/>
       <c r="D593" s="10" t="s">
         <v>1130</v>
@@ -12349,7 +12395,7 @@
       <c r="E593" s="8"/>
       <c r="F593" s="8"/>
     </row>
-    <row r="594" spans="3:6">
+    <row r="594" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C594" s="8"/>
       <c r="D594" s="10" t="s">
         <v>1131</v>
@@ -12357,7 +12403,7 @@
       <c r="E594" s="8"/>
       <c r="F594" s="8"/>
     </row>
-    <row r="595" spans="3:6">
+    <row r="595" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C595" s="8"/>
       <c r="D595" s="10" t="s">
         <v>1132</v>
@@ -12365,7 +12411,7 @@
       <c r="E595" s="8"/>
       <c r="F595" s="8"/>
     </row>
-    <row r="596" spans="3:6">
+    <row r="596" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C596" s="8"/>
       <c r="D596" s="10" t="s">
         <v>1133</v>
@@ -12373,7 +12419,7 @@
       <c r="E596" s="8"/>
       <c r="F596" s="8"/>
     </row>
-    <row r="597" spans="3:6">
+    <row r="597" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C597" s="8"/>
       <c r="D597" s="10" t="s">
         <v>1134</v>
@@ -12381,7 +12427,7 @@
       <c r="E597" s="8"/>
       <c r="F597" s="8"/>
     </row>
-    <row r="598" spans="3:6">
+    <row r="598" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C598" s="8"/>
       <c r="D598" s="10" t="s">
         <v>1135</v>
@@ -12389,7 +12435,7 @@
       <c r="E598" s="8"/>
       <c r="F598" s="8"/>
     </row>
-    <row r="599" spans="3:6">
+    <row r="599" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C599" s="8"/>
       <c r="D599" s="10" t="s">
         <v>1137</v>
@@ -12397,7 +12443,7 @@
       <c r="E599" s="8"/>
       <c r="F599" s="8"/>
     </row>
-    <row r="600" spans="3:6">
+    <row r="600" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C600" s="8"/>
       <c r="D600" s="10" t="s">
         <v>1138</v>
@@ -12405,7 +12451,7 @@
       <c r="E600" s="8"/>
       <c r="F600" s="8"/>
     </row>
-    <row r="601" spans="3:6">
+    <row r="601" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C601" s="8"/>
       <c r="D601" s="10" t="s">
         <v>1139</v>
@@ -12413,7 +12459,7 @@
       <c r="E601" s="8"/>
       <c r="F601" s="8"/>
     </row>
-    <row r="602" spans="3:6">
+    <row r="602" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C602" s="8"/>
       <c r="D602" s="10" t="s">
         <v>1140</v>
@@ -12421,7 +12467,7 @@
       <c r="E602" s="8"/>
       <c r="F602" s="8"/>
     </row>
-    <row r="603" spans="3:6">
+    <row r="603" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C603" s="8"/>
       <c r="D603" s="10" t="s">
         <v>1141</v>
@@ -12429,7 +12475,7 @@
       <c r="E603" s="8"/>
       <c r="F603" s="8"/>
     </row>
-    <row r="604" spans="3:6">
+    <row r="604" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C604" s="8"/>
       <c r="D604" s="10" t="s">
         <v>1142</v>
@@ -12437,7 +12483,7 @@
       <c r="E604" s="8"/>
       <c r="F604" s="8"/>
     </row>
-    <row r="605" spans="3:6">
+    <row r="605" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C605" s="8"/>
       <c r="D605" s="10" t="s">
         <v>1143</v>
@@ -12445,7 +12491,7 @@
       <c r="E605" s="8"/>
       <c r="F605" s="8"/>
     </row>
-    <row r="606" spans="3:6">
+    <row r="606" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C606" s="8"/>
       <c r="D606" s="10" t="s">
         <v>1144</v>
@@ -12453,7 +12499,7 @@
       <c r="E606" s="8"/>
       <c r="F606" s="8"/>
     </row>
-    <row r="607" spans="3:6">
+    <row r="607" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C607" s="8"/>
       <c r="D607" s="10" t="s">
         <v>1145</v>
@@ -12461,7 +12507,7 @@
       <c r="E607" s="8"/>
       <c r="F607" s="8"/>
     </row>
-    <row r="608" spans="3:6">
+    <row r="608" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C608" s="8"/>
       <c r="D608" s="10" t="s">
         <v>1146</v>
@@ -12469,7 +12515,7 @@
       <c r="E608" s="8"/>
       <c r="F608" s="8"/>
     </row>
-    <row r="609" spans="3:6">
+    <row r="609" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C609" s="8"/>
       <c r="D609" s="10" t="s">
         <v>1147</v>
@@ -12477,7 +12523,7 @@
       <c r="E609" s="8"/>
       <c r="F609" s="8"/>
     </row>
-    <row r="610" spans="3:6">
+    <row r="610" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C610" s="8"/>
       <c r="D610" s="10" t="s">
         <v>1148</v>
@@ -12485,7 +12531,7 @@
       <c r="E610" s="8"/>
       <c r="F610" s="8"/>
     </row>
-    <row r="611" spans="3:6">
+    <row r="611" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C611" s="8"/>
       <c r="D611" s="10" t="s">
         <v>1149</v>
@@ -12493,7 +12539,7 @@
       <c r="E611" s="8"/>
       <c r="F611" s="8"/>
     </row>
-    <row r="612" spans="3:6">
+    <row r="612" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C612" s="8"/>
       <c r="D612" s="10" t="s">
         <v>1150</v>
@@ -12501,7 +12547,7 @@
       <c r="E612" s="8"/>
       <c r="F612" s="8"/>
     </row>
-    <row r="613" spans="3:6">
+    <row r="613" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C613" s="8"/>
       <c r="D613" s="10" t="s">
         <v>1151</v>
@@ -12509,7 +12555,7 @@
       <c r="E613" s="8"/>
       <c r="F613" s="8"/>
     </row>
-    <row r="614" spans="3:6">
+    <row r="614" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C614" s="8"/>
       <c r="D614" s="10" t="s">
         <v>1152</v>
@@ -12517,7 +12563,7 @@
       <c r="E614" s="8"/>
       <c r="F614" s="8"/>
     </row>
-    <row r="615" spans="3:6">
+    <row r="615" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C615" s="8"/>
       <c r="D615" s="10" t="s">
         <v>1153</v>
@@ -12525,7 +12571,7 @@
       <c r="E615" s="8"/>
       <c r="F615" s="8"/>
     </row>
-    <row r="616" spans="3:6">
+    <row r="616" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C616" s="8"/>
       <c r="D616" s="10" t="s">
         <v>1154</v>
@@ -12533,7 +12579,7 @@
       <c r="E616" s="8"/>
       <c r="F616" s="8"/>
     </row>
-    <row r="617" spans="3:6">
+    <row r="617" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C617" s="8"/>
       <c r="D617" s="10" t="s">
         <v>1155</v>
@@ -12541,7 +12587,7 @@
       <c r="E617" s="8"/>
       <c r="F617" s="8"/>
     </row>
-    <row r="618" spans="3:6">
+    <row r="618" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C618" s="8"/>
       <c r="D618" s="10" t="s">
         <v>1156</v>
@@ -12549,7 +12595,7 @@
       <c r="E618" s="8"/>
       <c r="F618" s="8"/>
     </row>
-    <row r="619" spans="3:6">
+    <row r="619" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C619" s="8"/>
       <c r="D619" s="10" t="s">
         <v>1157</v>
@@ -12557,7 +12603,7 @@
       <c r="E619" s="8"/>
       <c r="F619" s="8"/>
     </row>
-    <row r="620" spans="3:6">
+    <row r="620" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C620" s="8"/>
       <c r="D620" s="10" t="s">
         <v>1158</v>
@@ -12565,7 +12611,7 @@
       <c r="E620" s="8"/>
       <c r="F620" s="8"/>
     </row>
-    <row r="621" spans="3:6">
+    <row r="621" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C621" s="8"/>
       <c r="D621" s="10" t="s">
         <v>1159</v>
@@ -12573,7 +12619,7 @@
       <c r="E621" s="8"/>
       <c r="F621" s="8"/>
     </row>
-    <row r="622" spans="3:6">
+    <row r="622" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C622" s="8"/>
       <c r="D622" s="10" t="s">
         <v>1160</v>
@@ -12581,7 +12627,7 @@
       <c r="E622" s="8"/>
       <c r="F622" s="8"/>
     </row>
-    <row r="623" spans="3:6">
+    <row r="623" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C623" s="8"/>
       <c r="D623" s="10" t="s">
         <v>1161</v>
@@ -12589,7 +12635,7 @@
       <c r="E623" s="8"/>
       <c r="F623" s="8"/>
     </row>
-    <row r="624" spans="3:6">
+    <row r="624" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C624" s="8"/>
       <c r="D624" s="10" t="s">
         <v>1165</v>
@@ -12597,7 +12643,7 @@
       <c r="E624" s="8"/>
       <c r="F624" s="8"/>
     </row>
-    <row r="625" spans="3:6">
+    <row r="625" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C625" s="8"/>
       <c r="D625" s="10" t="s">
         <v>1166</v>
@@ -12605,7 +12651,7 @@
       <c r="E625" s="8"/>
       <c r="F625" s="8"/>
     </row>
-    <row r="626" spans="3:6">
+    <row r="626" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C626" s="8"/>
       <c r="D626" s="10" t="s">
         <v>1167</v>
@@ -12613,7 +12659,7 @@
       <c r="E626" s="8"/>
       <c r="F626" s="8"/>
     </row>
-    <row r="627" spans="3:6">
+    <row r="627" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C627" s="8"/>
       <c r="D627" s="10" t="s">
         <v>1168</v>
@@ -12621,7 +12667,7 @@
       <c r="E627" s="8"/>
       <c r="F627" s="8"/>
     </row>
-    <row r="628" spans="3:6">
+    <row r="628" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C628" s="8"/>
       <c r="D628" s="10" t="s">
         <v>1169</v>
@@ -12629,7 +12675,7 @@
       <c r="E628" s="8"/>
       <c r="F628" s="8"/>
     </row>
-    <row r="629" spans="3:6">
+    <row r="629" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C629" s="8"/>
       <c r="D629" s="10" t="s">
         <v>1170</v>
@@ -12637,7 +12683,7 @@
       <c r="E629" s="8"/>
       <c r="F629" s="8"/>
     </row>
-    <row r="630" spans="3:6">
+    <row r="630" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C630" s="8"/>
       <c r="D630" s="10" t="s">
         <v>1171</v>
@@ -12645,7 +12691,7 @@
       <c r="E630" s="8"/>
       <c r="F630" s="8"/>
     </row>
-    <row r="631" spans="3:6">
+    <row r="631" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C631" s="8"/>
       <c r="D631" s="10" t="s">
         <v>1172</v>
@@ -12653,7 +12699,7 @@
       <c r="E631" s="8"/>
       <c r="F631" s="8"/>
     </row>
-    <row r="632" spans="3:6">
+    <row r="632" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C632" s="8"/>
       <c r="D632" s="10" t="s">
         <v>1173</v>
@@ -12661,7 +12707,7 @@
       <c r="E632" s="8"/>
       <c r="F632" s="8"/>
     </row>
-    <row r="633" spans="3:6">
+    <row r="633" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C633" s="8"/>
       <c r="D633" s="10" t="s">
         <v>1174</v>
@@ -12669,7 +12715,7 @@
       <c r="E633" s="8"/>
       <c r="F633" s="8"/>
     </row>
-    <row r="634" spans="3:6">
+    <row r="634" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C634" s="8"/>
       <c r="D634" s="10" t="s">
         <v>1175</v>
@@ -12677,7 +12723,7 @@
       <c r="E634" s="8"/>
       <c r="F634" s="8"/>
     </row>
-    <row r="635" spans="3:6">
+    <row r="635" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C635" s="8"/>
       <c r="D635" s="10" t="s">
         <v>1176</v>
@@ -12685,7 +12731,7 @@
       <c r="E635" s="8"/>
       <c r="F635" s="8"/>
     </row>
-    <row r="636" spans="3:6">
+    <row r="636" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C636" s="8"/>
       <c r="D636" s="10" t="s">
         <v>1177</v>
@@ -12693,7 +12739,7 @@
       <c r="E636" s="8"/>
       <c r="F636" s="8"/>
     </row>
-    <row r="637" spans="3:6">
+    <row r="637" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C637" s="8"/>
       <c r="D637" s="10" t="s">
         <v>1178</v>
@@ -12701,7 +12747,7 @@
       <c r="E637" s="8"/>
       <c r="F637" s="8"/>
     </row>
-    <row r="638" spans="3:6">
+    <row r="638" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C638" s="8"/>
       <c r="D638" s="10" t="s">
         <v>1179</v>
@@ -12709,7 +12755,7 @@
       <c r="E638" s="8"/>
       <c r="F638" s="8"/>
     </row>
-    <row r="639" spans="3:6">
+    <row r="639" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C639" s="8"/>
       <c r="D639" s="10" t="s">
         <v>1180</v>
@@ -12717,7 +12763,7 @@
       <c r="E639" s="8"/>
       <c r="F639" s="8"/>
     </row>
-    <row r="640" spans="3:6">
+    <row r="640" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C640" s="8"/>
       <c r="D640" s="10" t="s">
         <v>1181</v>
@@ -12725,7 +12771,7 @@
       <c r="E640" s="8"/>
       <c r="F640" s="8"/>
     </row>
-    <row r="641" spans="3:6">
+    <row r="641" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C641" s="8"/>
       <c r="D641" s="10" t="s">
         <v>1182</v>
@@ -12733,7 +12779,7 @@
       <c r="E641" s="8"/>
       <c r="F641" s="8"/>
     </row>
-    <row r="642" spans="3:6">
+    <row r="642" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C642" s="8"/>
       <c r="D642" s="10" t="s">
         <v>1183</v>
@@ -12741,7 +12787,7 @@
       <c r="E642" s="8"/>
       <c r="F642" s="8"/>
     </row>
-    <row r="643" spans="3:6">
+    <row r="643" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C643" s="8"/>
       <c r="D643" s="10" t="s">
         <v>1184</v>
@@ -12749,7 +12795,7 @@
       <c r="E643" s="8"/>
       <c r="F643" s="8"/>
     </row>
-    <row r="644" spans="3:6">
+    <row r="644" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C644" s="8"/>
       <c r="D644" s="10" t="s">
         <v>1192</v>
@@ -12757,7 +12803,7 @@
       <c r="E644" s="8"/>
       <c r="F644" s="8"/>
     </row>
-    <row r="645" spans="3:6">
+    <row r="645" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C645" s="8"/>
       <c r="D645" s="10" t="s">
         <v>1193</v>
@@ -12765,7 +12811,7 @@
       <c r="E645" s="8"/>
       <c r="F645" s="8"/>
     </row>
-    <row r="646" spans="3:6">
+    <row r="646" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C646" s="8"/>
       <c r="D646" s="10" t="s">
         <v>1194</v>
@@ -12773,7 +12819,7 @@
       <c r="E646" s="8"/>
       <c r="F646" s="8"/>
     </row>
-    <row r="647" spans="3:6">
+    <row r="647" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C647" s="8"/>
       <c r="D647" s="10" t="s">
         <v>1195</v>
@@ -12781,7 +12827,7 @@
       <c r="E647" s="8"/>
       <c r="F647" s="8"/>
     </row>
-    <row r="648" spans="3:6">
+    <row r="648" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C648" s="8"/>
       <c r="D648" s="10" t="s">
         <v>1196</v>
@@ -12789,7 +12835,7 @@
       <c r="E648" s="8"/>
       <c r="F648" s="8"/>
     </row>
-    <row r="649" spans="3:6">
+    <row r="649" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C649" s="8"/>
       <c r="D649" s="10" t="s">
         <v>1197</v>
@@ -12797,7 +12843,7 @@
       <c r="E649" s="8"/>
       <c r="F649" s="8"/>
     </row>
-    <row r="650" spans="3:6">
+    <row r="650" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C650" s="8"/>
       <c r="D650" s="10" t="s">
         <v>1198</v>
@@ -12805,7 +12851,7 @@
       <c r="E650" s="8"/>
       <c r="F650" s="8"/>
     </row>
-    <row r="651" spans="3:6">
+    <row r="651" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C651" s="8"/>
       <c r="D651" s="10" t="s">
         <v>1199</v>
@@ -12813,7 +12859,7 @@
       <c r="E651" s="8"/>
       <c r="F651" s="8"/>
     </row>
-    <row r="652" spans="3:6">
+    <row r="652" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C652" s="8"/>
       <c r="D652" s="10" t="s">
         <v>1200</v>
@@ -12821,7 +12867,7 @@
       <c r="E652" s="8"/>
       <c r="F652" s="8"/>
     </row>
-    <row r="653" spans="3:6">
+    <row r="653" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C653" s="8"/>
       <c r="D653" s="10" t="s">
         <v>1201</v>
@@ -12829,7 +12875,7 @@
       <c r="E653" s="8"/>
       <c r="F653" s="8"/>
     </row>
-    <row r="654" spans="3:6">
+    <row r="654" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C654" s="8"/>
       <c r="D654" s="10" t="s">
         <v>1202</v>
@@ -12837,7 +12883,7 @@
       <c r="E654" s="8"/>
       <c r="F654" s="8"/>
     </row>
-    <row r="655" spans="3:6">
+    <row r="655" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C655" s="8"/>
       <c r="D655" s="10" t="s">
         <v>1232</v>
@@ -12845,7 +12891,7 @@
       <c r="E655" s="8"/>
       <c r="F655" s="8"/>
     </row>
-    <row r="656" spans="3:6">
+    <row r="656" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C656" s="8"/>
       <c r="D656" s="10" t="s">
         <v>1233</v>
@@ -12853,7 +12899,7 @@
       <c r="E656" s="8"/>
       <c r="F656" s="8"/>
     </row>
-    <row r="657" spans="3:6">
+    <row r="657" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C657" s="8"/>
       <c r="D657" s="10" t="s">
         <v>1234</v>
@@ -12861,7 +12907,7 @@
       <c r="E657" s="8"/>
       <c r="F657" s="8"/>
     </row>
-    <row r="658" spans="3:6">
+    <row r="658" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C658" s="8"/>
       <c r="D658" s="10" t="s">
         <v>1235</v>
@@ -12869,7 +12915,7 @@
       <c r="E658" s="8"/>
       <c r="F658" s="8"/>
     </row>
-    <row r="659" spans="3:6">
+    <row r="659" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C659" s="8"/>
       <c r="D659" s="10" t="s">
         <v>1236</v>
@@ -12877,7 +12923,7 @@
       <c r="E659" s="8"/>
       <c r="F659" s="8"/>
     </row>
-    <row r="660" spans="3:6">
+    <row r="660" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C660" s="8"/>
       <c r="D660" s="10" t="s">
         <v>1237</v>
@@ -12885,7 +12931,7 @@
       <c r="E660" s="8"/>
       <c r="F660" s="8"/>
     </row>
-    <row r="661" spans="3:6">
+    <row r="661" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C661" s="8"/>
       <c r="D661" s="10" t="s">
         <v>1238</v>
@@ -12893,7 +12939,7 @@
       <c r="E661" s="8"/>
       <c r="F661" s="8"/>
     </row>
-    <row r="662" spans="3:6">
+    <row r="662" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C662" s="8"/>
       <c r="D662" s="10" t="s">
         <v>1239</v>
@@ -12901,7 +12947,7 @@
       <c r="E662" s="8"/>
       <c r="F662" s="8"/>
     </row>
-    <row r="663" spans="3:6">
+    <row r="663" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C663" s="8"/>
       <c r="D663" s="10" t="s">
         <v>1253</v>
@@ -12909,7 +12955,7 @@
       <c r="E663" s="8"/>
       <c r="F663" s="8"/>
     </row>
-    <row r="664" spans="3:6">
+    <row r="664" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C664" s="8"/>
       <c r="D664" s="10" t="s">
         <v>1311</v>
@@ -12917,7 +12963,7 @@
       <c r="E664" s="8"/>
       <c r="F664" s="8"/>
     </row>
-    <row r="665" spans="3:6">
+    <row r="665" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C665" s="8"/>
       <c r="D665" s="10" t="s">
         <v>1312</v>
@@ -12925,7 +12971,7 @@
       <c r="E665" s="8"/>
       <c r="F665" s="8"/>
     </row>
-    <row r="666" spans="3:6">
+    <row r="666" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C666" s="8"/>
       <c r="D666" s="10" t="s">
         <v>1313</v>
@@ -12933,7 +12979,7 @@
       <c r="E666" s="8"/>
       <c r="F666" s="8"/>
     </row>
-    <row r="667" spans="3:6">
+    <row r="667" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C667" s="8"/>
       <c r="D667" s="10" t="s">
         <v>1314</v>
@@ -12941,7 +12987,7 @@
       <c r="E667" s="8"/>
       <c r="F667" s="8"/>
     </row>
-    <row r="668" spans="3:6">
+    <row r="668" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C668" s="8"/>
       <c r="D668" s="10" t="s">
         <v>1315</v>
@@ -12949,7 +12995,7 @@
       <c r="E668" s="8"/>
       <c r="F668" s="8"/>
     </row>
-    <row r="669" spans="3:6">
+    <row r="669" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C669" s="8"/>
       <c r="D669" s="10" t="s">
         <v>1316</v>
@@ -12957,7 +13003,7 @@
       <c r="E669" s="8"/>
       <c r="F669" s="8"/>
     </row>
-    <row r="670" spans="3:6">
+    <row r="670" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C670" s="8"/>
       <c r="D670" s="10" t="s">
         <v>1317</v>
@@ -12965,7 +13011,7 @@
       <c r="E670" s="8"/>
       <c r="F670" s="8"/>
     </row>
-    <row r="671" spans="3:6">
+    <row r="671" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C671" s="8"/>
       <c r="D671" s="10" t="s">
         <v>1318</v>
@@ -12973,7 +13019,7 @@
       <c r="E671" s="8"/>
       <c r="F671" s="8"/>
     </row>
-    <row r="672" spans="3:6">
+    <row r="672" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C672" s="8"/>
       <c r="D672" s="10" t="s">
         <v>1319</v>
@@ -12981,7 +13027,7 @@
       <c r="E672" s="8"/>
       <c r="F672" s="8"/>
     </row>
-    <row r="673" spans="3:6">
+    <row r="673" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C673" s="8"/>
       <c r="D673" s="10" t="s">
         <v>1320</v>
@@ -12989,7 +13035,7 @@
       <c r="E673" s="8"/>
       <c r="F673" s="8"/>
     </row>
-    <row r="674" spans="3:6">
+    <row r="674" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C674" s="8"/>
       <c r="D674" s="10" t="s">
         <v>1321</v>
@@ -12997,7 +13043,7 @@
       <c r="E674" s="8"/>
       <c r="F674" s="8"/>
     </row>
-    <row r="675" spans="3:6">
+    <row r="675" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C675" s="8"/>
       <c r="D675" s="10" t="s">
         <v>1322</v>
@@ -13005,7 +13051,7 @@
       <c r="E675" s="8"/>
       <c r="F675" s="8"/>
     </row>
-    <row r="676" spans="3:6">
+    <row r="676" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C676" s="8"/>
       <c r="D676" s="10" t="s">
         <v>1323</v>
@@ -13013,7 +13059,7 @@
       <c r="E676" s="8"/>
       <c r="F676" s="8"/>
     </row>
-    <row r="677" spans="3:6">
+    <row r="677" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C677" s="8"/>
       <c r="D677" s="10" t="s">
         <v>1324</v>
@@ -13021,7 +13067,7 @@
       <c r="E677" s="8"/>
       <c r="F677" s="8"/>
     </row>
-    <row r="678" spans="3:6">
+    <row r="678" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C678" s="8"/>
       <c r="D678" s="10" t="s">
         <v>1325</v>
@@ -13029,7 +13075,7 @@
       <c r="E678" s="8"/>
       <c r="F678" s="8"/>
     </row>
-    <row r="679" spans="3:6">
+    <row r="679" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C679" s="8"/>
       <c r="D679" s="10" t="s">
         <v>1326</v>
@@ -13037,7 +13083,7 @@
       <c r="E679" s="8"/>
       <c r="F679" s="8"/>
     </row>
-    <row r="680" spans="3:6">
+    <row r="680" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C680" s="8"/>
       <c r="D680" s="10" t="s">
         <v>1327</v>
@@ -13045,7 +13091,7 @@
       <c r="E680" s="8"/>
       <c r="F680" s="8"/>
     </row>
-    <row r="681" spans="3:6">
+    <row r="681" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C681" s="8"/>
       <c r="D681" s="10" t="s">
         <v>1328</v>
@@ -13053,7 +13099,7 @@
       <c r="E681" s="8"/>
       <c r="F681" s="8"/>
     </row>
-    <row r="682" spans="3:6">
+    <row r="682" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C682" s="8"/>
       <c r="D682" s="10" t="s">
         <v>1329</v>
@@ -13061,7 +13107,7 @@
       <c r="E682" s="8"/>
       <c r="F682" s="8"/>
     </row>
-    <row r="683" spans="3:6">
+    <row r="683" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C683" s="8"/>
       <c r="D683" s="10" t="s">
         <v>1330</v>
@@ -13069,7 +13115,7 @@
       <c r="E683" s="8"/>
       <c r="F683" s="8"/>
     </row>
-    <row r="684" spans="3:6">
+    <row r="684" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C684" s="8"/>
       <c r="D684" s="10" t="s">
         <v>1331</v>
@@ -13077,7 +13123,7 @@
       <c r="E684" s="8"/>
       <c r="F684" s="8"/>
     </row>
-    <row r="685" spans="3:6">
+    <row r="685" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C685" s="8"/>
       <c r="D685" s="10" t="s">
         <v>1332</v>
@@ -13085,7 +13131,7 @@
       <c r="E685" s="8"/>
       <c r="F685" s="8"/>
     </row>
-    <row r="686" spans="3:6">
+    <row r="686" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C686" s="8"/>
       <c r="D686" s="10" t="s">
         <v>1333</v>
@@ -13093,7 +13139,7 @@
       <c r="E686" s="8"/>
       <c r="F686" s="8"/>
     </row>
-    <row r="687" spans="3:6">
+    <row r="687" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C687" s="8"/>
       <c r="D687" s="10" t="s">
         <v>1334</v>
@@ -13101,7 +13147,7 @@
       <c r="E687" s="8"/>
       <c r="F687" s="8"/>
     </row>
-    <row r="688" spans="3:6">
+    <row r="688" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C688" s="8"/>
       <c r="D688" s="10" t="s">
         <v>1335</v>
@@ -13109,7 +13155,7 @@
       <c r="E688" s="8"/>
       <c r="F688" s="8"/>
     </row>
-    <row r="689" spans="3:6">
+    <row r="689" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C689" s="8"/>
       <c r="D689" s="10" t="s">
         <v>1336</v>
@@ -13117,7 +13163,7 @@
       <c r="E689" s="8"/>
       <c r="F689" s="8"/>
     </row>
-    <row r="690" spans="3:6">
+    <row r="690" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C690" s="8"/>
       <c r="D690" s="10" t="s">
         <v>1337</v>
@@ -13125,7 +13171,7 @@
       <c r="E690" s="8"/>
       <c r="F690" s="8"/>
     </row>
-    <row r="691" spans="3:6">
+    <row r="691" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C691" s="8"/>
       <c r="D691" s="10" t="s">
         <v>1338</v>
@@ -13133,7 +13179,7 @@
       <c r="E691" s="8"/>
       <c r="F691" s="8"/>
     </row>
-    <row r="692" spans="3:6">
+    <row r="692" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C692" s="8"/>
       <c r="D692" s="10" t="s">
         <v>1339</v>
@@ -13141,7 +13187,7 @@
       <c r="E692" s="8"/>
       <c r="F692" s="8"/>
     </row>
-    <row r="693" spans="3:6">
+    <row r="693" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C693" s="8"/>
       <c r="D693" s="10" t="s">
         <v>1340</v>
@@ -13149,7 +13195,7 @@
       <c r="E693" s="8"/>
       <c r="F693" s="8"/>
     </row>
-    <row r="694" spans="3:6">
+    <row r="694" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C694" s="8"/>
       <c r="D694" s="10" t="s">
         <v>1341</v>
@@ -13157,7 +13203,7 @@
       <c r="E694" s="8"/>
       <c r="F694" s="8"/>
     </row>
-    <row r="695" spans="3:6">
+    <row r="695" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C695" s="8"/>
       <c r="D695" s="10" t="s">
         <v>1342</v>
@@ -13165,7 +13211,7 @@
       <c r="E695" s="8"/>
       <c r="F695" s="8"/>
     </row>
-    <row r="696" spans="3:6">
+    <row r="696" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C696" s="8"/>
       <c r="D696" s="10" t="s">
         <v>1343</v>
@@ -13173,7 +13219,7 @@
       <c r="E696" s="8"/>
       <c r="F696" s="8"/>
     </row>
-    <row r="697" spans="3:6">
+    <row r="697" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C697" s="8"/>
       <c r="D697" s="10" t="s">
         <v>1344</v>
@@ -13181,7 +13227,7 @@
       <c r="E697" s="8"/>
       <c r="F697" s="8"/>
     </row>
-    <row r="698" spans="3:6">
+    <row r="698" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C698" s="8"/>
       <c r="D698" s="10" t="s">
         <v>1345</v>
@@ -13189,7 +13235,7 @@
       <c r="E698" s="8"/>
       <c r="F698" s="8"/>
     </row>
-    <row r="699" spans="3:6">
+    <row r="699" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C699" s="8"/>
       <c r="D699" s="10" t="s">
         <v>1346</v>
@@ -13197,7 +13243,7 @@
       <c r="E699" s="8"/>
       <c r="F699" s="8"/>
     </row>
-    <row r="700" spans="3:6">
+    <row r="700" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C700" s="8"/>
       <c r="D700" s="10" t="s">
         <v>1347</v>
@@ -13205,7 +13251,7 @@
       <c r="E700" s="8"/>
       <c r="F700" s="8"/>
     </row>
-    <row r="701" spans="3:6">
+    <row r="701" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C701" s="8"/>
       <c r="D701" s="10" t="s">
         <v>1355</v>
@@ -13213,7 +13259,7 @@
       <c r="E701" s="8"/>
       <c r="F701" s="8"/>
     </row>
-    <row r="702" spans="3:6">
+    <row r="702" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C702" s="8"/>
       <c r="D702" s="10" t="s">
         <v>1356</v>
@@ -13221,7 +13267,7 @@
       <c r="E702" s="8"/>
       <c r="F702" s="8"/>
     </row>
-    <row r="703" spans="3:6">
+    <row r="703" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C703" s="8"/>
       <c r="D703" s="10" t="s">
         <v>1357</v>
@@ -13229,7 +13275,7 @@
       <c r="E703" s="8"/>
       <c r="F703" s="8"/>
     </row>
-    <row r="704" spans="3:6">
+    <row r="704" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C704" s="8"/>
       <c r="D704" s="10" t="s">
         <v>1358</v>
@@ -13237,7 +13283,7 @@
       <c r="E704" s="8"/>
       <c r="F704" s="8"/>
     </row>
-    <row r="705" spans="3:6">
+    <row r="705" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C705" s="8"/>
       <c r="D705" s="10" t="s">
         <v>1359</v>
@@ -13245,7 +13291,7 @@
       <c r="E705" s="8"/>
       <c r="F705" s="8"/>
     </row>
-    <row r="706" spans="3:6">
+    <row r="706" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C706" s="8"/>
       <c r="D706" s="10" t="s">
         <v>1360</v>
@@ -13253,7 +13299,7 @@
       <c r="E706" s="8"/>
       <c r="F706" s="8"/>
     </row>
-    <row r="707" spans="3:6">
+    <row r="707" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C707" s="8"/>
       <c r="D707" s="10" t="s">
         <v>1361</v>
@@ -13261,7 +13307,7 @@
       <c r="E707" s="8"/>
       <c r="F707" s="8"/>
     </row>
-    <row r="708" spans="3:6">
+    <row r="708" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C708" s="8"/>
       <c r="D708" s="10" t="s">
         <v>1362</v>
@@ -13269,7 +13315,7 @@
       <c r="E708" s="8"/>
       <c r="F708" s="8"/>
     </row>
-    <row r="709" spans="3:6">
+    <row r="709" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C709" s="8"/>
       <c r="D709" s="10" t="s">
         <v>1363</v>
@@ -13277,7 +13323,7 @@
       <c r="E709" s="8"/>
       <c r="F709" s="8"/>
     </row>
-    <row r="710" spans="3:6">
+    <row r="710" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C710" s="8"/>
       <c r="D710" s="10" t="s">
         <v>1364</v>
@@ -13285,7 +13331,7 @@
       <c r="E710" s="8"/>
       <c r="F710" s="8"/>
     </row>
-    <row r="711" spans="3:6">
+    <row r="711" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C711" s="8"/>
       <c r="D711" s="10" t="s">
         <v>1365</v>
@@ -13293,7 +13339,7 @@
       <c r="E711" s="8"/>
       <c r="F711" s="8"/>
     </row>
-    <row r="712" spans="3:6">
+    <row r="712" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C712" s="8"/>
       <c r="D712" s="10" t="s">
         <v>1366</v>
@@ -13301,7 +13347,7 @@
       <c r="E712" s="8"/>
       <c r="F712" s="8"/>
     </row>
-    <row r="713" spans="3:6">
+    <row r="713" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C713" s="8"/>
       <c r="D713" s="10" t="s">
         <v>1367</v>
@@ -13309,7 +13355,7 @@
       <c r="E713" s="8"/>
       <c r="F713" s="8"/>
     </row>
-    <row r="714" spans="3:6">
+    <row r="714" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C714" s="8"/>
       <c r="D714" s="10" t="s">
         <v>1368</v>
@@ -13317,7 +13363,7 @@
       <c r="E714" s="8"/>
       <c r="F714" s="8"/>
     </row>
-    <row r="715" spans="3:6">
+    <row r="715" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C715" s="8"/>
       <c r="D715" s="10" t="s">
         <v>1369</v>
@@ -13325,7 +13371,7 @@
       <c r="E715" s="8"/>
       <c r="F715" s="8"/>
     </row>
-    <row r="716" spans="3:6">
+    <row r="716" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C716" s="8"/>
       <c r="D716" s="10" t="s">
         <v>1370</v>
@@ -13333,7 +13379,7 @@
       <c r="E716" s="8"/>
       <c r="F716" s="8"/>
     </row>
-    <row r="717" spans="3:6">
+    <row r="717" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C717" s="8"/>
       <c r="D717" s="10" t="s">
         <v>1371</v>
@@ -13341,7 +13387,7 @@
       <c r="E717" s="8"/>
       <c r="F717" s="8"/>
     </row>
-    <row r="718" spans="3:6">
+    <row r="718" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C718" s="8"/>
       <c r="D718" s="10" t="s">
         <v>1372</v>
@@ -13349,7 +13395,7 @@
       <c r="E718" s="8"/>
       <c r="F718" s="8"/>
     </row>
-    <row r="719" spans="3:6">
+    <row r="719" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C719" s="8"/>
       <c r="D719" s="10" t="s">
         <v>1373</v>
@@ -13357,7 +13403,7 @@
       <c r="E719" s="8"/>
       <c r="F719" s="8"/>
     </row>
-    <row r="720" spans="3:6">
+    <row r="720" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C720" s="8"/>
       <c r="D720" s="10" t="s">
         <v>1374</v>
@@ -13365,7 +13411,7 @@
       <c r="E720" s="8"/>
       <c r="F720" s="8"/>
     </row>
-    <row r="721" spans="3:6">
+    <row r="721" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C721" s="8"/>
       <c r="D721" s="10" t="s">
         <v>1375</v>
@@ -13373,7 +13419,7 @@
       <c r="E721" s="8"/>
       <c r="F721" s="8"/>
     </row>
-    <row r="722" spans="3:6">
+    <row r="722" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C722" s="8"/>
       <c r="D722" s="10" t="s">
         <v>1376</v>
@@ -13381,7 +13427,7 @@
       <c r="E722" s="8"/>
       <c r="F722" s="8"/>
     </row>
-    <row r="723" spans="3:6">
+    <row r="723" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C723" s="8"/>
       <c r="D723" s="10" t="s">
         <v>1377</v>
@@ -13389,7 +13435,7 @@
       <c r="E723" s="8"/>
       <c r="F723" s="8"/>
     </row>
-    <row r="724" spans="3:6">
+    <row r="724" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C724" s="8"/>
       <c r="D724" s="10" t="s">
         <v>1378</v>
@@ -13397,7 +13443,7 @@
       <c r="E724" s="8"/>
       <c r="F724" s="8"/>
     </row>
-    <row r="725" spans="3:6">
+    <row r="725" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C725" s="8"/>
       <c r="D725" s="10" t="s">
         <v>1379</v>
@@ -13405,7 +13451,7 @@
       <c r="E725" s="8"/>
       <c r="F725" s="8"/>
     </row>
-    <row r="726" spans="3:6">
+    <row r="726" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C726" s="8"/>
       <c r="D726" s="10" t="s">
         <v>1380</v>
@@ -13413,7 +13459,7 @@
       <c r="E726" s="8"/>
       <c r="F726" s="8"/>
     </row>
-    <row r="727" spans="3:6">
+    <row r="727" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C727" s="8"/>
       <c r="D727" s="10" t="s">
         <v>1381</v>
@@ -13421,7 +13467,7 @@
       <c r="E727" s="8"/>
       <c r="F727" s="8"/>
     </row>
-    <row r="728" spans="3:6">
+    <row r="728" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C728" s="8"/>
       <c r="D728" s="10" t="s">
         <v>1382</v>
@@ -13429,7 +13475,7 @@
       <c r="E728" s="8"/>
       <c r="F728" s="8"/>
     </row>
-    <row r="729" spans="3:6">
+    <row r="729" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C729" s="8"/>
       <c r="D729" s="10" t="s">
         <v>1383</v>
@@ -13437,7 +13483,7 @@
       <c r="E729" s="8"/>
       <c r="F729" s="8"/>
     </row>
-    <row r="730" spans="3:6">
+    <row r="730" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C730" s="8"/>
       <c r="D730" s="10" t="s">
         <v>1384</v>
@@ -13445,7 +13491,7 @@
       <c r="E730" s="8"/>
       <c r="F730" s="8"/>
     </row>
-    <row r="731" spans="3:6">
+    <row r="731" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C731" s="8"/>
       <c r="D731" s="10" t="s">
         <v>1385</v>
@@ -13453,7 +13499,7 @@
       <c r="E731" s="8"/>
       <c r="F731" s="8"/>
     </row>
-    <row r="732" spans="3:6">
+    <row r="732" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C732" s="8"/>
       <c r="D732" s="10" t="s">
         <v>1386</v>
@@ -13461,7 +13507,7 @@
       <c r="E732" s="8"/>
       <c r="F732" s="8"/>
     </row>
-    <row r="733" spans="3:6">
+    <row r="733" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C733" s="8"/>
       <c r="D733" s="10" t="s">
         <v>1387</v>
@@ -13469,7 +13515,7 @@
       <c r="E733" s="8"/>
       <c r="F733" s="8"/>
     </row>
-    <row r="734" spans="3:6">
+    <row r="734" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C734" s="8"/>
       <c r="D734" s="10" t="s">
         <v>1388</v>
@@ -13477,7 +13523,7 @@
       <c r="E734" s="8"/>
       <c r="F734" s="8"/>
     </row>
-    <row r="735" spans="3:6">
+    <row r="735" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C735" s="8"/>
       <c r="D735" s="10" t="s">
         <v>1389</v>
@@ -13485,7 +13531,7 @@
       <c r="E735" s="8"/>
       <c r="F735" s="8"/>
     </row>
-    <row r="736" spans="3:6">
+    <row r="736" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C736" s="8"/>
       <c r="D736" s="10" t="s">
         <v>1390</v>
@@ -13493,7 +13539,7 @@
       <c r="E736" s="8"/>
       <c r="F736" s="8"/>
     </row>
-    <row r="737" spans="3:6">
+    <row r="737" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C737" s="8"/>
       <c r="D737" s="10" t="s">
         <v>1391</v>
@@ -13501,7 +13547,7 @@
       <c r="E737" s="8"/>
       <c r="F737" s="8"/>
     </row>
-    <row r="738" spans="3:6">
+    <row r="738" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C738" s="8"/>
       <c r="D738" s="10" t="s">
         <v>1392</v>
@@ -13509,7 +13555,7 @@
       <c r="E738" s="8"/>
       <c r="F738" s="8"/>
     </row>
-    <row r="739" spans="3:6">
+    <row r="739" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C739" s="8"/>
       <c r="D739" s="10" t="s">
         <v>1393</v>
@@ -13517,7 +13563,7 @@
       <c r="E739" s="8"/>
       <c r="F739" s="8"/>
     </row>
-    <row r="740" spans="3:6">
+    <row r="740" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C740" s="8"/>
       <c r="D740" s="10" t="s">
         <v>1394</v>
@@ -13525,7 +13571,7 @@
       <c r="E740" s="8"/>
       <c r="F740" s="8"/>
     </row>
-    <row r="741" spans="3:6">
+    <row r="741" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C741" s="8"/>
       <c r="D741" s="10" t="s">
         <v>1395</v>
@@ -13533,7 +13579,7 @@
       <c r="E741" s="8"/>
       <c r="F741" s="8"/>
     </row>
-    <row r="742" spans="3:6">
+    <row r="742" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C742" s="8"/>
       <c r="D742" s="10" t="s">
         <v>1396</v>
@@ -13541,7 +13587,7 @@
       <c r="E742" s="8"/>
       <c r="F742" s="8"/>
     </row>
-    <row r="743" spans="3:6">
+    <row r="743" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C743" s="8"/>
       <c r="D743" s="10" t="s">
         <v>1397</v>
@@ -13549,7 +13595,7 @@
       <c r="E743" s="8"/>
       <c r="F743" s="8"/>
     </row>
-    <row r="744" spans="3:6">
+    <row r="744" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C744" s="8"/>
       <c r="D744" s="10" t="s">
         <v>1398</v>
@@ -13557,7 +13603,7 @@
       <c r="E744" s="8"/>
       <c r="F744" s="8"/>
     </row>
-    <row r="745" spans="3:6">
+    <row r="745" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C745" s="8"/>
       <c r="D745" s="10" t="s">
         <v>1399</v>
@@ -13565,7 +13611,7 @@
       <c r="E745" s="8"/>
       <c r="F745" s="8"/>
     </row>
-    <row r="746" spans="3:6">
+    <row r="746" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C746" s="8"/>
       <c r="D746" s="10" t="s">
         <v>1400</v>
@@ -13573,7 +13619,7 @@
       <c r="E746" s="8"/>
       <c r="F746" s="8"/>
     </row>
-    <row r="747" spans="3:6">
+    <row r="747" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C747" s="8"/>
       <c r="D747" s="10" t="s">
         <v>1401</v>
@@ -13581,7 +13627,7 @@
       <c r="E747" s="8"/>
       <c r="F747" s="8"/>
     </row>
-    <row r="748" spans="3:6">
+    <row r="748" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C748" s="8"/>
       <c r="D748" s="10" t="s">
         <v>1402</v>
@@ -13589,7 +13635,7 @@
       <c r="E748" s="8"/>
       <c r="F748" s="8"/>
     </row>
-    <row r="749" spans="3:6">
+    <row r="749" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C749" s="8"/>
       <c r="D749" s="10" t="s">
         <v>1403</v>
@@ -13597,7 +13643,7 @@
       <c r="E749" s="8"/>
       <c r="F749" s="8"/>
     </row>
-    <row r="750" spans="3:6">
+    <row r="750" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C750" s="8"/>
       <c r="D750" s="10" t="s">
         <v>1404</v>
@@ -13605,7 +13651,7 @@
       <c r="E750" s="8"/>
       <c r="F750" s="8"/>
     </row>
-    <row r="751" spans="3:6">
+    <row r="751" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C751" s="8"/>
       <c r="D751" s="10" t="s">
         <v>1405</v>
@@ -13613,7 +13659,7 @@
       <c r="E751" s="8"/>
       <c r="F751" s="8"/>
     </row>
-    <row r="752" spans="3:6">
+    <row r="752" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C752" s="8"/>
       <c r="D752" s="10" t="s">
         <v>1406</v>
@@ -13621,7 +13667,7 @@
       <c r="E752" s="8"/>
       <c r="F752" s="8"/>
     </row>
-    <row r="753" spans="3:6">
+    <row r="753" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C753" s="8"/>
       <c r="D753" s="10" t="s">
         <v>1407</v>
@@ -13629,7 +13675,7 @@
       <c r="E753" s="8"/>
       <c r="F753" s="8"/>
     </row>
-    <row r="754" spans="3:6">
+    <row r="754" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C754" s="8"/>
       <c r="D754" s="10" t="s">
         <v>1408</v>
@@ -13637,7 +13683,7 @@
       <c r="E754" s="8"/>
       <c r="F754" s="8"/>
     </row>
-    <row r="755" spans="3:6">
+    <row r="755" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C755" s="8"/>
       <c r="D755" s="10" t="s">
         <v>1409</v>
@@ -13645,7 +13691,7 @@
       <c r="E755" s="8"/>
       <c r="F755" s="8"/>
     </row>
-    <row r="756" spans="3:6">
+    <row r="756" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C756" s="8"/>
       <c r="D756" s="10" t="s">
         <v>1410</v>
@@ -13653,7 +13699,7 @@
       <c r="E756" s="8"/>
       <c r="F756" s="8"/>
     </row>
-    <row r="757" spans="3:6">
+    <row r="757" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C757" s="8"/>
       <c r="D757" s="10" t="s">
         <v>1413</v>
@@ -13661,7 +13707,7 @@
       <c r="E757" s="8"/>
       <c r="F757" s="8"/>
     </row>
-    <row r="758" spans="3:6">
+    <row r="758" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C758" s="8"/>
       <c r="D758" s="10" t="s">
         <v>1414</v>
@@ -13669,7 +13715,7 @@
       <c r="E758" s="8"/>
       <c r="F758" s="8"/>
     </row>
-    <row r="759" spans="3:6">
+    <row r="759" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C759" s="8"/>
       <c r="D759" s="10" t="s">
         <v>1415</v>
@@ -13677,7 +13723,7 @@
       <c r="E759" s="8"/>
       <c r="F759" s="8"/>
     </row>
-    <row r="760" spans="3:6">
+    <row r="760" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C760" s="8"/>
       <c r="D760" s="10" t="s">
         <v>1416</v>
@@ -13685,7 +13731,7 @@
       <c r="E760" s="8"/>
       <c r="F760" s="8"/>
     </row>
-    <row r="761" spans="3:6">
+    <row r="761" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C761" s="8"/>
       <c r="D761" s="10" t="s">
         <v>1417</v>
@@ -13693,7 +13739,7 @@
       <c r="E761" s="8"/>
       <c r="F761" s="8"/>
     </row>
-    <row r="762" spans="3:6">
+    <row r="762" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C762" s="8"/>
       <c r="D762" s="10" t="s">
         <v>1418</v>
@@ -13701,7 +13747,7 @@
       <c r="E762" s="8"/>
       <c r="F762" s="8"/>
     </row>
-    <row r="763" spans="3:6">
+    <row r="763" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C763" s="8"/>
       <c r="D763" s="10" t="s">
         <v>1419</v>
@@ -13709,7 +13755,7 @@
       <c r="E763" s="8"/>
       <c r="F763" s="8"/>
     </row>
-    <row r="764" spans="3:6">
+    <row r="764" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C764" s="8"/>
       <c r="D764" s="10" t="s">
         <v>1420</v>
@@ -13717,7 +13763,7 @@
       <c r="E764" s="8"/>
       <c r="F764" s="8"/>
     </row>
-    <row r="765" spans="3:6">
+    <row r="765" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C765" s="8"/>
       <c r="D765" s="10" t="s">
         <v>1421</v>

--- a/SharkTraits-Template.xlsx
+++ b/SharkTraits-Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="16000" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="32480" yWindow="-1940" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="1571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="1575">
   <si>
     <t>observation_id</t>
   </si>
@@ -4773,6 +4773,18 @@
   </si>
   <si>
     <t>CHIL</t>
+  </si>
+  <si>
+    <t>Length-Length</t>
+  </si>
+  <si>
+    <t>Length-Weight</t>
+  </si>
+  <si>
+    <t>contributor_id</t>
+  </si>
+  <si>
+    <t>depth</t>
   </si>
 </sst>
 </file>
@@ -5754,10 +5766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5777,7 +5789,7 @@
     <col min="24" max="24" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5864,6 +5876,12 @@
       </c>
       <c r="AC1" t="s">
         <v>25</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1574</v>
       </c>
     </row>
   </sheetData>
@@ -5923,8 +5941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K765"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I28" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6717,6 +6735,9 @@
       <c r="E54" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="H54" t="s">
+        <v>1571</v>
+      </c>
       <c r="J54" s="11" t="s">
         <v>1509</v>
       </c>
@@ -6733,6 +6754,9 @@
       </c>
       <c r="E55" s="1" t="s">
         <v>110</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1572</v>
       </c>
       <c r="J55" s="11" t="s">
         <v>1511</v>
